--- a/filters/db/teams-by-league.xlsx
+++ b/filters/db/teams-by-league.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20115" windowHeight="8520" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20115" windowHeight="8520" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="NCAA" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="MLB" sheetId="4" r:id="rId4"/>
     <sheet name="NHL" sheetId="5" r:id="rId5"/>
     <sheet name="SOCCER" sheetId="6" r:id="rId6"/>
+    <sheet name="Leauges" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="1071">
   <si>
     <t>id</t>
   </si>
@@ -3211,6 +3212,27 @@
   </si>
   <si>
     <t>USAS</t>
+  </si>
+  <si>
+    <t>League-Apparel-Merchandise</t>
+  </si>
+  <si>
+    <t>Leauge Apparel at CampusColors.com</t>
+  </si>
+  <si>
+    <t>ncaa</t>
+  </si>
+  <si>
+    <t>nfl</t>
+  </si>
+  <si>
+    <t>nba</t>
+  </si>
+  <si>
+    <t>mlb</t>
+  </si>
+  <si>
+    <t>nhl</t>
   </si>
 </sst>
 </file>
@@ -12015,8 +12037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13066,7 +13088,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E22"/>
+      <selection activeCell="E4" sqref="A1:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13580,4 +13602,203 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="43.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>683</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E5" t="s">
+        <v>683</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>786</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E6" t="s">
+        <v>786</v>
+      </c>
+      <c r="F6" t="s">
+        <v>644</v>
+      </c>
+      <c r="G6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>874</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" t="s">
+        <v>874</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>955</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E8" t="s">
+        <v>955</v>
+      </c>
+      <c r="F8" t="s">
+        <v>644</v>
+      </c>
+      <c r="G8">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/filters/db/teams-by-league.xlsx
+++ b/filters/db/teams-by-league.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20115" windowHeight="8520" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20115" windowHeight="8520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NCAA" sheetId="1" r:id="rId1"/>
@@ -4065,7 +4065,7 @@
   <dimension ref="A1:G222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="A4" sqref="A4:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4074,25 +4074,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -4156,7 +4156,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="G4">
         <v>150</v>
@@ -4179,7 +4179,7 @@
         <v>446</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="G5">
         <v>150</v>
@@ -4225,7 +4225,7 @@
         <v>448</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="G7">
         <v>150</v>
@@ -4302,7 +4302,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -4311,10 +4311,10 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F11" t="s">
         <v>644</v>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -4334,10 +4334,10 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F12" t="s">
         <v>644</v>
@@ -4601,7 +4601,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -4610,10 +4610,10 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F24" t="s">
         <v>644</v>
@@ -4624,7 +4624,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -4633,10 +4633,10 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F25" t="s">
         <v>644</v>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>356</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -4886,10 +4886,10 @@
         <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>357</v>
       </c>
       <c r="E36" t="s">
-        <v>474</v>
+        <v>357</v>
       </c>
       <c r="F36" t="s">
         <v>644</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -4909,10 +4909,10 @@
         <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E37" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F37" t="s">
         <v>644</v>
@@ -4923,7 +4923,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -4932,10 +4932,10 @@
         <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F38" t="s">
         <v>644</v>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -4955,10 +4955,10 @@
         <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E39" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F39" t="s">
         <v>644</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -4978,10 +4978,10 @@
         <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F40" t="s">
         <v>644</v>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -5001,10 +5001,10 @@
         <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F41" t="s">
         <v>644</v>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -5024,10 +5024,10 @@
         <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E42" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F42" t="s">
         <v>644</v>
@@ -5038,7 +5038,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -5047,10 +5047,10 @@
         <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E43" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F43" t="s">
         <v>644</v>
@@ -5061,7 +5061,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -5070,10 +5070,10 @@
         <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E44" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F44" t="s">
         <v>644</v>
@@ -5084,7 +5084,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -5093,10 +5093,10 @@
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E45" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F45" t="s">
         <v>644</v>
@@ -5107,7 +5107,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -5116,10 +5116,10 @@
         <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E46" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F46" t="s">
         <v>644</v>
@@ -5130,7 +5130,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -5139,10 +5139,10 @@
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F47" t="s">
         <v>644</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -5162,10 +5162,10 @@
         <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E48" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F48" t="s">
         <v>644</v>
@@ -5176,7 +5176,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -5185,10 +5185,10 @@
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F49" t="s">
         <v>644</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -5208,10 +5208,10 @@
         <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E50" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F50" t="s">
         <v>644</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -5231,10 +5231,10 @@
         <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E51" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F51" t="s">
         <v>644</v>
@@ -5245,7 +5245,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -5254,10 +5254,10 @@
         <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E52" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F52" t="s">
         <v>644</v>
@@ -5268,7 +5268,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -5277,10 +5277,10 @@
         <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E53" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F53" t="s">
         <v>644</v>
@@ -5291,7 +5291,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -5300,10 +5300,10 @@
         <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E54" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F54" t="s">
         <v>644</v>
@@ -5314,7 +5314,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -5323,10 +5323,10 @@
         <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E55" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F55" t="s">
         <v>644</v>
@@ -5337,7 +5337,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -5346,10 +5346,10 @@
         <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E56" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F56" t="s">
         <v>644</v>
@@ -5360,7 +5360,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -5369,10 +5369,10 @@
         <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E57" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F57" t="s">
         <v>644</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
@@ -5392,10 +5392,10 @@
         <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E58" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F58" t="s">
         <v>644</v>
@@ -5406,7 +5406,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
@@ -5415,10 +5415,10 @@
         <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E59" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F59" t="s">
         <v>644</v>
@@ -5429,7 +5429,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
@@ -5438,10 +5438,10 @@
         <v>17</v>
       </c>
       <c r="D60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E60" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F60" t="s">
         <v>644</v>
@@ -5452,7 +5452,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
@@ -5461,10 +5461,10 @@
         <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E61" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F61" t="s">
         <v>644</v>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
@@ -5484,10 +5484,10 @@
         <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E62" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F62" t="s">
         <v>644</v>
@@ -5498,7 +5498,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -5507,10 +5507,10 @@
         <v>17</v>
       </c>
       <c r="D63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E63" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F63" t="s">
         <v>644</v>
@@ -5521,7 +5521,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -5530,10 +5530,10 @@
         <v>17</v>
       </c>
       <c r="D64" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E64" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F64" t="s">
         <v>644</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
@@ -5553,10 +5553,10 @@
         <v>17</v>
       </c>
       <c r="D65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E65" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F65" t="s">
         <v>644</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -5576,10 +5576,10 @@
         <v>17</v>
       </c>
       <c r="D66" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E66" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F66" t="s">
         <v>644</v>
@@ -5590,7 +5590,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
@@ -5599,10 +5599,10 @@
         <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E67" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F67" t="s">
         <v>644</v>
@@ -5613,7 +5613,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -5622,10 +5622,10 @@
         <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E68" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F68" t="s">
         <v>644</v>
@@ -5636,7 +5636,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
@@ -5645,10 +5645,10 @@
         <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E69" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F69" t="s">
         <v>644</v>
@@ -5659,7 +5659,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
@@ -5668,10 +5668,10 @@
         <v>17</v>
       </c>
       <c r="D70" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E70" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F70" t="s">
         <v>644</v>
@@ -5682,7 +5682,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -5691,10 +5691,10 @@
         <v>17</v>
       </c>
       <c r="D71" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E71" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F71" t="s">
         <v>644</v>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -5714,10 +5714,10 @@
         <v>17</v>
       </c>
       <c r="D72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E72" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F72" t="s">
         <v>644</v>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
@@ -5737,10 +5737,10 @@
         <v>17</v>
       </c>
       <c r="D73" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E73" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F73" t="s">
         <v>644</v>
@@ -5751,7 +5751,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -5760,10 +5760,10 @@
         <v>17</v>
       </c>
       <c r="D74" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E74" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F74" t="s">
         <v>644</v>
@@ -5774,7 +5774,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
@@ -5783,10 +5783,10 @@
         <v>17</v>
       </c>
       <c r="D75" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E75" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F75" t="s">
         <v>644</v>
@@ -5797,7 +5797,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
@@ -5806,10 +5806,10 @@
         <v>17</v>
       </c>
       <c r="D76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E76" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F76" t="s">
         <v>644</v>
@@ -5820,7 +5820,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
@@ -5829,10 +5829,10 @@
         <v>17</v>
       </c>
       <c r="D77" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E77" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F77" t="s">
         <v>644</v>
@@ -5843,7 +5843,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
@@ -5852,10 +5852,10 @@
         <v>17</v>
       </c>
       <c r="D78" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E78" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F78" t="s">
         <v>644</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
@@ -5875,10 +5875,10 @@
         <v>17</v>
       </c>
       <c r="D79" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E79" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F79" t="s">
         <v>644</v>
@@ -5889,7 +5889,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -5898,10 +5898,10 @@
         <v>17</v>
       </c>
       <c r="D80" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E80" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F80" t="s">
         <v>644</v>
@@ -5912,7 +5912,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
@@ -5921,10 +5921,10 @@
         <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E81" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F81" t="s">
         <v>644</v>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
@@ -5944,10 +5944,10 @@
         <v>17</v>
       </c>
       <c r="D82" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E82" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F82" t="s">
         <v>644</v>
@@ -5958,7 +5958,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
@@ -5967,10 +5967,10 @@
         <v>17</v>
       </c>
       <c r="D83" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E83" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F83" t="s">
         <v>644</v>
@@ -5981,7 +5981,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
@@ -5990,10 +5990,10 @@
         <v>17</v>
       </c>
       <c r="D84" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E84" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F84" t="s">
         <v>644</v>
@@ -6004,7 +6004,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
@@ -6013,10 +6013,10 @@
         <v>17</v>
       </c>
       <c r="D85" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E85" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F85" t="s">
         <v>644</v>
@@ -6027,7 +6027,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
@@ -6036,10 +6036,10 @@
         <v>17</v>
       </c>
       <c r="D86" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E86" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F86" t="s">
         <v>644</v>
@@ -6050,7 +6050,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
@@ -6059,10 +6059,10 @@
         <v>17</v>
       </c>
       <c r="D87" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E87" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F87" t="s">
         <v>644</v>
@@ -6073,7 +6073,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
@@ -6082,10 +6082,10 @@
         <v>17</v>
       </c>
       <c r="D88" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E88" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F88" t="s">
         <v>644</v>
@@ -6096,7 +6096,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
@@ -6105,10 +6105,10 @@
         <v>17</v>
       </c>
       <c r="D89" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E89" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F89" t="s">
         <v>644</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
@@ -6128,10 +6128,10 @@
         <v>17</v>
       </c>
       <c r="D90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E90" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F90" t="s">
         <v>644</v>
@@ -6142,7 +6142,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
@@ -6151,10 +6151,10 @@
         <v>17</v>
       </c>
       <c r="D91" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E91" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F91" t="s">
         <v>644</v>
@@ -6165,7 +6165,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
@@ -6177,7 +6177,7 @@
         <v>191</v>
       </c>
       <c r="E92" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F92" t="s">
         <v>644</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
@@ -6197,10 +6197,10 @@
         <v>17</v>
       </c>
       <c r="D93" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E93" t="s">
-        <v>194</v>
+        <v>530</v>
       </c>
       <c r="F93" t="s">
         <v>644</v>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
@@ -6220,10 +6220,10 @@
         <v>17</v>
       </c>
       <c r="D94" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E94" t="s">
-        <v>531</v>
+        <v>194</v>
       </c>
       <c r="F94" t="s">
         <v>644</v>
@@ -6234,7 +6234,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
@@ -6243,10 +6243,10 @@
         <v>17</v>
       </c>
       <c r="D95" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E95" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F95" t="s">
         <v>644</v>
@@ -6257,7 +6257,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
@@ -6266,10 +6266,10 @@
         <v>17</v>
       </c>
       <c r="D96" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E96" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F96" t="s">
         <v>644</v>
@@ -6280,7 +6280,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
@@ -6289,10 +6289,10 @@
         <v>17</v>
       </c>
       <c r="D97" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E97" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F97" t="s">
         <v>644</v>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
@@ -6312,10 +6312,10 @@
         <v>17</v>
       </c>
       <c r="D98" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E98" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F98" t="s">
         <v>644</v>
@@ -6326,7 +6326,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
@@ -6335,10 +6335,10 @@
         <v>17</v>
       </c>
       <c r="D99" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E99" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F99" t="s">
         <v>644</v>
@@ -6349,7 +6349,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
@@ -6358,10 +6358,10 @@
         <v>17</v>
       </c>
       <c r="D100" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E100" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F100" t="s">
         <v>644</v>
@@ -6372,7 +6372,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
@@ -6381,10 +6381,10 @@
         <v>17</v>
       </c>
       <c r="D101" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E101" t="s">
-        <v>210</v>
+        <v>537</v>
       </c>
       <c r="F101" t="s">
         <v>644</v>
@@ -6395,7 +6395,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
@@ -6404,10 +6404,10 @@
         <v>17</v>
       </c>
       <c r="D102" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E102" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F102" t="s">
         <v>644</v>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
@@ -6427,10 +6427,10 @@
         <v>17</v>
       </c>
       <c r="D103" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E103" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F103" t="s">
         <v>644</v>
@@ -6441,7 +6441,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
@@ -6450,10 +6450,10 @@
         <v>17</v>
       </c>
       <c r="D104" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E104" t="s">
-        <v>540</v>
+        <v>210</v>
       </c>
       <c r="F104" t="s">
         <v>644</v>
@@ -6464,7 +6464,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
@@ -6473,10 +6473,10 @@
         <v>17</v>
       </c>
       <c r="D105" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E105" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F105" t="s">
         <v>644</v>
@@ -6487,7 +6487,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
@@ -6496,10 +6496,10 @@
         <v>17</v>
       </c>
       <c r="D106" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E106" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F106" t="s">
         <v>644</v>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
@@ -6519,10 +6519,10 @@
         <v>17</v>
       </c>
       <c r="D107" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E107" t="s">
-        <v>222</v>
+        <v>542</v>
       </c>
       <c r="F107" t="s">
         <v>644</v>
@@ -6533,7 +6533,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
@@ -6542,10 +6542,10 @@
         <v>17</v>
       </c>
       <c r="D108" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E108" t="s">
-        <v>543</v>
+        <v>222</v>
       </c>
       <c r="F108" t="s">
         <v>644</v>
@@ -6556,7 +6556,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
@@ -6565,10 +6565,10 @@
         <v>17</v>
       </c>
       <c r="D109" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E109" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F109" t="s">
         <v>644</v>
@@ -6602,7 +6602,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
@@ -6611,10 +6611,10 @@
         <v>17</v>
       </c>
       <c r="D111" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E111" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F111" t="s">
         <v>644</v>
@@ -6625,7 +6625,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
@@ -6634,10 +6634,10 @@
         <v>17</v>
       </c>
       <c r="D112" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E112" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F112" t="s">
         <v>644</v>
@@ -6648,7 +6648,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
@@ -6657,10 +6657,10 @@
         <v>17</v>
       </c>
       <c r="D113" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E113" t="s">
-        <v>234</v>
+        <v>547</v>
       </c>
       <c r="F113" t="s">
         <v>644</v>
@@ -6671,7 +6671,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
@@ -6680,10 +6680,10 @@
         <v>17</v>
       </c>
       <c r="D114" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E114" t="s">
-        <v>236</v>
+        <v>548</v>
       </c>
       <c r="F114" t="s">
         <v>644</v>
@@ -6694,7 +6694,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
@@ -6703,10 +6703,10 @@
         <v>17</v>
       </c>
       <c r="D115" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E115" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F115" t="s">
         <v>644</v>
@@ -6717,7 +6717,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
@@ -6726,10 +6726,10 @@
         <v>17</v>
       </c>
       <c r="D116" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E116" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F116" t="s">
         <v>644</v>
@@ -6740,7 +6740,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
@@ -6749,10 +6749,10 @@
         <v>17</v>
       </c>
       <c r="D117" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E117" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F117" t="s">
         <v>644</v>
@@ -6763,7 +6763,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B118" t="s">
         <v>8</v>
@@ -6772,10 +6772,10 @@
         <v>17</v>
       </c>
       <c r="D118" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E118" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F118" t="s">
         <v>644</v>
@@ -6786,7 +6786,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
@@ -6795,10 +6795,10 @@
         <v>17</v>
       </c>
       <c r="D119" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E119" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F119" t="s">
         <v>644</v>
@@ -6809,7 +6809,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B120" t="s">
         <v>8</v>
@@ -6818,10 +6818,10 @@
         <v>17</v>
       </c>
       <c r="D120" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E120" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F120" t="s">
         <v>644</v>
@@ -6832,7 +6832,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B121" t="s">
         <v>8</v>
@@ -6841,10 +6841,10 @@
         <v>17</v>
       </c>
       <c r="D121" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E121" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F121" t="s">
         <v>644</v>
@@ -6855,7 +6855,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B122" t="s">
         <v>8</v>
@@ -6864,10 +6864,10 @@
         <v>17</v>
       </c>
       <c r="D122" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E122" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F122" t="s">
         <v>644</v>
@@ -6878,7 +6878,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B123" t="s">
         <v>8</v>
@@ -6887,10 +6887,10 @@
         <v>17</v>
       </c>
       <c r="D123" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E123" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F123" t="s">
         <v>644</v>
@@ -6901,7 +6901,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B124" t="s">
         <v>8</v>
@@ -6910,10 +6910,10 @@
         <v>17</v>
       </c>
       <c r="D124" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E124" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F124" t="s">
         <v>644</v>
@@ -6924,7 +6924,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B125" t="s">
         <v>8</v>
@@ -6933,10 +6933,10 @@
         <v>17</v>
       </c>
       <c r="D125" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E125" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F125" t="s">
         <v>644</v>
@@ -6947,7 +6947,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
@@ -6956,10 +6956,10 @@
         <v>17</v>
       </c>
       <c r="D126" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="E126" t="s">
-        <v>559</v>
+        <v>234</v>
       </c>
       <c r="F126" t="s">
         <v>644</v>
@@ -6970,7 +6970,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
@@ -6979,10 +6979,10 @@
         <v>17</v>
       </c>
       <c r="D127" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="E127" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="F127" t="s">
         <v>644</v>
@@ -6993,7 +6993,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
@@ -7002,10 +7002,10 @@
         <v>17</v>
       </c>
       <c r="D128" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E128" t="s">
-        <v>560</v>
+        <v>261</v>
       </c>
       <c r="F128" t="s">
         <v>644</v>
@@ -7016,7 +7016,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B129" t="s">
         <v>8</v>
@@ -7025,10 +7025,10 @@
         <v>17</v>
       </c>
       <c r="D129" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E129" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F129" t="s">
         <v>644</v>
@@ -7039,7 +7039,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B130" t="s">
         <v>8</v>
@@ -7048,10 +7048,10 @@
         <v>17</v>
       </c>
       <c r="D130" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E130" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F130" t="s">
         <v>644</v>
@@ -7062,7 +7062,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B131" t="s">
         <v>8</v>
@@ -7071,10 +7071,10 @@
         <v>17</v>
       </c>
       <c r="D131" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E131" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F131" t="s">
         <v>644</v>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B132" t="s">
         <v>8</v>
@@ -7094,10 +7094,10 @@
         <v>17</v>
       </c>
       <c r="D132" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E132" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F132" t="s">
         <v>644</v>
@@ -7108,7 +7108,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
@@ -7117,10 +7117,10 @@
         <v>17</v>
       </c>
       <c r="D133" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E133" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F133" t="s">
         <v>644</v>
@@ -7131,7 +7131,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B134" t="s">
         <v>8</v>
@@ -7140,10 +7140,10 @@
         <v>17</v>
       </c>
       <c r="D134" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E134" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F134" t="s">
         <v>644</v>
@@ -7154,7 +7154,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B135" t="s">
         <v>8</v>
@@ -7163,10 +7163,10 @@
         <v>17</v>
       </c>
       <c r="D135" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E135" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F135" t="s">
         <v>644</v>
@@ -7189,7 +7189,7 @@
         <v>277</v>
       </c>
       <c r="E136" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F136" t="s">
         <v>644</v>
@@ -7200,7 +7200,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B137" t="s">
         <v>8</v>
@@ -7209,10 +7209,10 @@
         <v>17</v>
       </c>
       <c r="D137" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E137" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F137" t="s">
         <v>644</v>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B138" t="s">
         <v>8</v>
@@ -7232,10 +7232,10 @@
         <v>17</v>
       </c>
       <c r="D138" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E138" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F138" t="s">
         <v>644</v>
@@ -7246,7 +7246,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B139" t="s">
         <v>8</v>
@@ -7255,10 +7255,10 @@
         <v>17</v>
       </c>
       <c r="D139" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E139" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F139" t="s">
         <v>644</v>
@@ -7269,7 +7269,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
@@ -7278,10 +7278,10 @@
         <v>17</v>
       </c>
       <c r="D140" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E140" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F140" t="s">
         <v>644</v>
@@ -7292,7 +7292,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B141" t="s">
         <v>8</v>
@@ -7301,10 +7301,10 @@
         <v>17</v>
       </c>
       <c r="D141" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E141" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F141" t="s">
         <v>644</v>
@@ -7315,7 +7315,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B142" t="s">
         <v>8</v>
@@ -7324,10 +7324,10 @@
         <v>17</v>
       </c>
       <c r="D142" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E142" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F142" t="s">
         <v>644</v>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B143" t="s">
         <v>8</v>
@@ -7347,10 +7347,10 @@
         <v>17</v>
       </c>
       <c r="D143" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E143" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F143" t="s">
         <v>644</v>
@@ -7361,7 +7361,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B144" t="s">
         <v>8</v>
@@ -7370,10 +7370,10 @@
         <v>17</v>
       </c>
       <c r="D144" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E144" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F144" t="s">
         <v>644</v>
@@ -7384,7 +7384,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B145" t="s">
         <v>8</v>
@@ -7393,10 +7393,10 @@
         <v>17</v>
       </c>
       <c r="D145" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E145" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F145" t="s">
         <v>644</v>
@@ -7407,7 +7407,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B146" t="s">
         <v>8</v>
@@ -7416,10 +7416,10 @@
         <v>17</v>
       </c>
       <c r="D146" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E146" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F146" t="s">
         <v>644</v>
@@ -7430,7 +7430,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
@@ -7439,10 +7439,10 @@
         <v>17</v>
       </c>
       <c r="D147" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E147" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F147" t="s">
         <v>644</v>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B148" t="s">
         <v>8</v>
@@ -7462,10 +7462,10 @@
         <v>17</v>
       </c>
       <c r="D148" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E148" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F148" t="s">
         <v>644</v>
@@ -7476,7 +7476,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B149" t="s">
         <v>8</v>
@@ -7485,10 +7485,10 @@
         <v>17</v>
       </c>
       <c r="D149" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E149" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F149" t="s">
         <v>644</v>
@@ -7499,7 +7499,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B150" t="s">
         <v>8</v>
@@ -7508,10 +7508,10 @@
         <v>17</v>
       </c>
       <c r="D150" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E150" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F150" t="s">
         <v>644</v>
@@ -7522,7 +7522,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B151" t="s">
         <v>8</v>
@@ -7531,10 +7531,10 @@
         <v>17</v>
       </c>
       <c r="D151" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E151" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F151" t="s">
         <v>644</v>
@@ -7545,7 +7545,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B152" t="s">
         <v>8</v>
@@ -7554,10 +7554,10 @@
         <v>17</v>
       </c>
       <c r="D152" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E152" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F152" t="s">
         <v>644</v>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B153" t="s">
         <v>8</v>
@@ -7580,7 +7580,7 @@
         <v>308</v>
       </c>
       <c r="E153" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F153" t="s">
         <v>644</v>
@@ -7591,7 +7591,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B154" t="s">
         <v>8</v>
@@ -7600,10 +7600,10 @@
         <v>17</v>
       </c>
       <c r="D154" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E154" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F154" t="s">
         <v>644</v>
@@ -7614,7 +7614,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B155" t="s">
         <v>8</v>
@@ -7623,10 +7623,10 @@
         <v>17</v>
       </c>
       <c r="D155" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E155" t="s">
-        <v>313</v>
+        <v>586</v>
       </c>
       <c r="F155" t="s">
         <v>644</v>
@@ -7729,7 +7729,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B160" t="s">
         <v>8</v>
@@ -7738,10 +7738,10 @@
         <v>17</v>
       </c>
       <c r="D160" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="E160" t="s">
-        <v>590</v>
+        <v>313</v>
       </c>
       <c r="F160" t="s">
         <v>644</v>
@@ -7752,7 +7752,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B161" t="s">
         <v>8</v>
@@ -7761,10 +7761,10 @@
         <v>17</v>
       </c>
       <c r="D161" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E161" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F161" t="s">
         <v>644</v>
@@ -7775,7 +7775,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B162" t="s">
         <v>8</v>
@@ -7784,10 +7784,10 @@
         <v>17</v>
       </c>
       <c r="D162" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E162" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F162" t="s">
         <v>644</v>
@@ -7821,7 +7821,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B164" t="s">
         <v>8</v>
@@ -7830,10 +7830,10 @@
         <v>17</v>
       </c>
       <c r="D164" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E164" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F164" t="s">
         <v>644</v>
@@ -7844,7 +7844,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B165" t="s">
         <v>8</v>
@@ -7853,10 +7853,10 @@
         <v>17</v>
       </c>
       <c r="D165" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E165" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F165" t="s">
         <v>644</v>
@@ -7867,7 +7867,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B166" t="s">
         <v>8</v>
@@ -7876,10 +7876,10 @@
         <v>17</v>
       </c>
       <c r="D166" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E166" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F166" t="s">
         <v>644</v>
@@ -7890,7 +7890,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B167" t="s">
         <v>8</v>
@@ -7899,10 +7899,10 @@
         <v>17</v>
       </c>
       <c r="D167" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E167" t="s">
-        <v>335</v>
+        <v>596</v>
       </c>
       <c r="F167" t="s">
         <v>644</v>
@@ -7913,7 +7913,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B168" t="s">
         <v>8</v>
@@ -7922,10 +7922,10 @@
         <v>17</v>
       </c>
       <c r="D168" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E168" t="s">
-        <v>597</v>
+        <v>335</v>
       </c>
       <c r="F168" t="s">
         <v>644</v>
@@ -7936,7 +7936,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B169" t="s">
         <v>8</v>
@@ -7945,10 +7945,10 @@
         <v>17</v>
       </c>
       <c r="D169" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E169" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F169" t="s">
         <v>644</v>
@@ -7959,7 +7959,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B170" t="s">
         <v>8</v>
@@ -7968,10 +7968,10 @@
         <v>17</v>
       </c>
       <c r="D170" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E170" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F170" t="s">
         <v>644</v>
@@ -8005,7 +8005,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B172" t="s">
         <v>8</v>
@@ -8014,10 +8014,10 @@
         <v>17</v>
       </c>
       <c r="D172" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E172" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F172" t="s">
         <v>644</v>
@@ -8028,7 +8028,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B173" t="s">
         <v>8</v>
@@ -8037,10 +8037,10 @@
         <v>17</v>
       </c>
       <c r="D173" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E173" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F173" t="s">
         <v>644</v>
@@ -8051,7 +8051,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B174" t="s">
         <v>8</v>
@@ -8060,10 +8060,10 @@
         <v>17</v>
       </c>
       <c r="D174" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E174" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F174" t="s">
         <v>644</v>
@@ -8074,7 +8074,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B175" t="s">
         <v>8</v>
@@ -8083,10 +8083,10 @@
         <v>17</v>
       </c>
       <c r="D175" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E175" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F175" t="s">
         <v>644</v>
@@ -8097,7 +8097,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B176" t="s">
         <v>8</v>
@@ -8106,10 +8106,10 @@
         <v>17</v>
       </c>
       <c r="D176" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E176" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F176" t="s">
         <v>644</v>
@@ -8120,7 +8120,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B177" t="s">
         <v>8</v>
@@ -8129,10 +8129,10 @@
         <v>17</v>
       </c>
       <c r="D177" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E177" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F177" t="s">
         <v>644</v>
@@ -8143,7 +8143,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B178" t="s">
         <v>8</v>
@@ -8152,10 +8152,10 @@
         <v>17</v>
       </c>
       <c r="D178" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E178" t="s">
-        <v>357</v>
+        <v>606</v>
       </c>
       <c r="F178" t="s">
         <v>644</v>
@@ -8304,7 +8304,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B185" t="s">
         <v>8</v>
@@ -8313,10 +8313,10 @@
         <v>17</v>
       </c>
       <c r="D185" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="E185" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F185" t="s">
         <v>644</v>
@@ -8327,7 +8327,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B186" t="s">
         <v>8</v>
@@ -8336,10 +8336,10 @@
         <v>17</v>
       </c>
       <c r="D186" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E186" t="s">
-        <v>611</v>
+        <v>371</v>
       </c>
       <c r="F186" t="s">
         <v>644</v>
@@ -8350,7 +8350,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B187" t="s">
         <v>8</v>
@@ -8359,10 +8359,10 @@
         <v>17</v>
       </c>
       <c r="D187" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E187" t="s">
-        <v>375</v>
+        <v>611</v>
       </c>
       <c r="F187" t="s">
         <v>644</v>
@@ -8373,7 +8373,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B188" t="s">
         <v>8</v>
@@ -8382,10 +8382,10 @@
         <v>17</v>
       </c>
       <c r="D188" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E188" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F188" t="s">
         <v>644</v>
@@ -8672,7 +8672,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B201" t="s">
         <v>8</v>
@@ -8681,10 +8681,10 @@
         <v>17</v>
       </c>
       <c r="D201" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E201" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F201" t="s">
         <v>644</v>
@@ -8695,7 +8695,7 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B202" t="s">
         <v>8</v>
@@ -8704,10 +8704,10 @@
         <v>17</v>
       </c>
       <c r="D202" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E202" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F202" t="s">
         <v>644</v>
@@ -8879,7 +8879,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B210" t="s">
         <v>8</v>
@@ -8888,10 +8888,10 @@
         <v>17</v>
       </c>
       <c r="D210" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E210" t="s">
-        <v>421</v>
+        <v>630</v>
       </c>
       <c r="F210" t="s">
         <v>644</v>
@@ -8902,7 +8902,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B211" t="s">
         <v>8</v>
@@ -8911,10 +8911,10 @@
         <v>17</v>
       </c>
       <c r="D211" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E211" t="s">
-        <v>630</v>
+        <v>421</v>
       </c>
       <c r="F211" t="s">
         <v>644</v>
@@ -9177,6 +9177,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G222">
+    <sortCondition ref="A2:A222"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9186,7 +9189,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A41"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9228,7 +9231,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -9277,7 +9280,7 @@
         <v>684</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="G4">
         <v>150</v>
@@ -9300,7 +9303,7 @@
         <v>708</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="G5">
         <v>150</v>
@@ -9346,7 +9349,7 @@
         <v>710</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="G7">
         <v>150</v>
@@ -9745,7 +9748,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -9754,10 +9757,10 @@
         <v>683</v>
       </c>
       <c r="D25" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="E25" t="s">
-        <v>728</v>
+        <v>700</v>
       </c>
       <c r="F25" t="s">
         <v>644</v>
@@ -9768,7 +9771,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -9777,10 +9780,10 @@
         <v>683</v>
       </c>
       <c r="D26" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="E26" t="s">
-        <v>729</v>
+        <v>683</v>
       </c>
       <c r="F26" t="s">
         <v>644</v>
@@ -9791,7 +9794,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -9800,10 +9803,10 @@
         <v>683</v>
       </c>
       <c r="D27" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E27" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F27" t="s">
         <v>644</v>
@@ -9814,7 +9817,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -9823,10 +9826,10 @@
         <v>683</v>
       </c>
       <c r="D28" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E28" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F28" t="s">
         <v>644</v>
@@ -9837,7 +9840,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -9846,10 +9849,10 @@
         <v>683</v>
       </c>
       <c r="D29" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E29" t="s">
-        <v>700</v>
+        <v>730</v>
       </c>
       <c r="F29" t="s">
         <v>644</v>
@@ -9860,7 +9863,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -9869,10 +9872,10 @@
         <v>683</v>
       </c>
       <c r="D30" t="s">
-        <v>683</v>
+        <v>699</v>
       </c>
       <c r="E30" t="s">
-        <v>683</v>
+        <v>731</v>
       </c>
       <c r="F30" t="s">
         <v>644</v>
@@ -10135,6 +10138,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G41">
+    <sortCondition ref="A2:A41"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10144,8 +10150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10187,7 +10193,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -10236,7 +10242,7 @@
         <v>800</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="G4">
         <v>150</v>
@@ -10259,7 +10265,7 @@
         <v>801</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="G5">
         <v>150</v>
@@ -10305,7 +10311,7 @@
         <v>803</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="G7">
         <v>150</v>
@@ -11102,8 +11108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11145,7 +11151,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -11194,7 +11200,7 @@
         <v>878</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="G4">
         <v>150</v>
@@ -11217,7 +11223,7 @@
         <v>879</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="G5">
         <v>150</v>
@@ -11263,7 +11269,7 @@
         <v>881</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="G7">
         <v>150</v>
@@ -11593,7 +11599,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -11602,10 +11608,10 @@
         <v>874</v>
       </c>
       <c r="D22" t="s">
-        <v>206</v>
+        <v>874</v>
       </c>
       <c r="E22" t="s">
-        <v>896</v>
+        <v>874</v>
       </c>
       <c r="F22" t="s">
         <v>644</v>
@@ -11616,7 +11622,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -11625,10 +11631,10 @@
         <v>874</v>
       </c>
       <c r="D23" t="s">
-        <v>790</v>
+        <v>206</v>
       </c>
       <c r="E23" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F23" t="s">
         <v>644</v>
@@ -11639,7 +11645,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -11648,10 +11654,10 @@
         <v>874</v>
       </c>
       <c r="D24" t="s">
-        <v>216</v>
+        <v>790</v>
       </c>
       <c r="E24" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F24" t="s">
         <v>644</v>
@@ -11662,7 +11668,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -11671,10 +11677,10 @@
         <v>874</v>
       </c>
       <c r="D25" t="s">
-        <v>874</v>
+        <v>216</v>
       </c>
       <c r="E25" t="s">
-        <v>874</v>
+        <v>898</v>
       </c>
       <c r="F25" t="s">
         <v>644</v>
@@ -11708,7 +11714,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -11717,10 +11723,10 @@
         <v>874</v>
       </c>
       <c r="D27" t="s">
-        <v>699</v>
+        <v>877</v>
       </c>
       <c r="E27" t="s">
-        <v>900</v>
+        <v>877</v>
       </c>
       <c r="F27" t="s">
         <v>644</v>
@@ -11731,7 +11737,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -11743,7 +11749,7 @@
         <v>699</v>
       </c>
       <c r="E28" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F28" t="s">
         <v>644</v>
@@ -11754,7 +11760,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -11763,10 +11769,10 @@
         <v>874</v>
       </c>
       <c r="D29" t="s">
-        <v>877</v>
+        <v>699</v>
       </c>
       <c r="E29" t="s">
-        <v>877</v>
+        <v>901</v>
       </c>
       <c r="F29" t="s">
         <v>644</v>
@@ -12029,6 +12035,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A5:G40">
+    <sortCondition ref="A5:A40"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12037,8 +12046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12080,7 +12089,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -12114,7 +12123,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -12123,13 +12132,13 @@
         <v>955</v>
       </c>
       <c r="D4" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E4" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="G4">
         <v>150</v>
@@ -12137,7 +12146,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -12146,13 +12155,13 @@
         <v>955</v>
       </c>
       <c r="D5" t="s">
-        <v>957</v>
+        <v>685</v>
       </c>
       <c r="E5" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="G5">
         <v>150</v>
@@ -12160,7 +12169,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -12169,10 +12178,10 @@
         <v>955</v>
       </c>
       <c r="D6" t="s">
-        <v>685</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F6" t="s">
         <v>644</v>
@@ -12183,7 +12192,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -12192,13 +12201,13 @@
         <v>955</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>687</v>
       </c>
       <c r="E7" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="G7">
         <v>150</v>
@@ -12206,7 +12215,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -12215,10 +12224,10 @@
         <v>955</v>
       </c>
       <c r="D8" t="s">
-        <v>687</v>
+        <v>958</v>
       </c>
       <c r="E8" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="F8" t="s">
         <v>644</v>
@@ -12229,7 +12238,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -12238,10 +12247,10 @@
         <v>955</v>
       </c>
       <c r="D9" t="s">
-        <v>958</v>
+        <v>688</v>
       </c>
       <c r="E9" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F9" t="s">
         <v>644</v>
@@ -12252,7 +12261,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -12261,10 +12270,10 @@
         <v>955</v>
       </c>
       <c r="D10" t="s">
-        <v>688</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F10" t="s">
         <v>644</v>
@@ -12275,7 +12284,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -12284,10 +12293,10 @@
         <v>955</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F11" t="s">
         <v>644</v>
@@ -12298,7 +12307,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -12307,10 +12316,10 @@
         <v>955</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>959</v>
       </c>
       <c r="E12" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F12" t="s">
         <v>644</v>
@@ -12321,7 +12330,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -12330,10 +12339,10 @@
         <v>955</v>
       </c>
       <c r="D13" t="s">
-        <v>959</v>
+        <v>690</v>
       </c>
       <c r="E13" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F13" t="s">
         <v>644</v>
@@ -12344,7 +12353,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -12353,10 +12362,10 @@
         <v>955</v>
       </c>
       <c r="D14" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E14" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="F14" t="s">
         <v>644</v>
@@ -12367,7 +12376,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -12376,10 +12385,10 @@
         <v>955</v>
       </c>
       <c r="D15" t="s">
-        <v>691</v>
+        <v>960</v>
       </c>
       <c r="E15" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="F15" t="s">
         <v>644</v>
@@ -12390,7 +12399,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -12399,10 +12408,10 @@
         <v>955</v>
       </c>
       <c r="D16" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E16" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="F16" t="s">
         <v>644</v>
@@ -12413,7 +12422,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -12422,10 +12431,10 @@
         <v>955</v>
       </c>
       <c r="D17" t="s">
-        <v>961</v>
+        <v>135</v>
       </c>
       <c r="E17" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="F17" t="s">
         <v>644</v>
@@ -12436,7 +12445,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -12445,10 +12454,10 @@
         <v>955</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>962</v>
       </c>
       <c r="E18" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F18" t="s">
         <v>644</v>
@@ -12459,7 +12468,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -12468,10 +12477,10 @@
         <v>955</v>
       </c>
       <c r="D19" t="s">
-        <v>962</v>
+        <v>929</v>
       </c>
       <c r="E19" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F19" t="s">
         <v>644</v>
@@ -12482,7 +12491,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -12491,10 +12500,10 @@
         <v>955</v>
       </c>
       <c r="D20" t="s">
-        <v>929</v>
+        <v>789</v>
       </c>
       <c r="E20" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="F20" t="s">
         <v>644</v>
@@ -12505,7 +12514,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -12514,10 +12523,10 @@
         <v>955</v>
       </c>
       <c r="D21" t="s">
-        <v>789</v>
+        <v>216</v>
       </c>
       <c r="E21" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="F21" t="s">
         <v>644</v>
@@ -12551,7 +12560,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -12560,10 +12569,10 @@
         <v>955</v>
       </c>
       <c r="D23" t="s">
-        <v>216</v>
+        <v>876</v>
       </c>
       <c r="E23" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F23" t="s">
         <v>644</v>
@@ -12574,7 +12583,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -12583,10 +12592,10 @@
         <v>955</v>
       </c>
       <c r="D24" t="s">
-        <v>876</v>
+        <v>963</v>
       </c>
       <c r="E24" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F24" t="s">
         <v>644</v>
@@ -12597,7 +12606,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -12606,10 +12615,10 @@
         <v>955</v>
       </c>
       <c r="D25" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E25" t="s">
-        <v>994</v>
+        <v>955</v>
       </c>
       <c r="F25" t="s">
         <v>644</v>
@@ -12689,7 +12698,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>938</v>
+        <v>913</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -12698,13 +12707,13 @@
         <v>955</v>
       </c>
       <c r="D29" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E29" t="s">
-        <v>955</v>
+        <v>973</v>
       </c>
       <c r="F29" t="s">
-        <v>644</v>
+        <v>9</v>
       </c>
       <c r="G29">
         <v>150</v>
@@ -12758,7 +12767,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -12767,10 +12776,10 @@
         <v>955</v>
       </c>
       <c r="D32" t="s">
-        <v>702</v>
+        <v>966</v>
       </c>
       <c r="E32" t="s">
-        <v>1000</v>
+        <v>966</v>
       </c>
       <c r="F32" t="s">
         <v>644</v>
@@ -12781,7 +12790,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -12790,10 +12799,10 @@
         <v>955</v>
       </c>
       <c r="D33" t="s">
-        <v>795</v>
+        <v>702</v>
       </c>
       <c r="E33" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F33" t="s">
         <v>644</v>
@@ -12804,7 +12813,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -12813,10 +12822,10 @@
         <v>955</v>
       </c>
       <c r="D34" t="s">
-        <v>966</v>
+        <v>795</v>
       </c>
       <c r="E34" t="s">
-        <v>966</v>
+        <v>1001</v>
       </c>
       <c r="F34" t="s">
         <v>644</v>
@@ -12942,7 +12951,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -12951,10 +12960,10 @@
         <v>955</v>
       </c>
       <c r="D40" t="s">
-        <v>707</v>
+        <v>970</v>
       </c>
       <c r="E40" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="F40" t="s">
         <v>644</v>
@@ -12965,7 +12974,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -12974,10 +12983,10 @@
         <v>955</v>
       </c>
       <c r="D41" t="s">
-        <v>799</v>
+        <v>707</v>
       </c>
       <c r="E41" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F41" t="s">
         <v>644</v>
@@ -12988,7 +12997,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -12997,10 +13006,10 @@
         <v>955</v>
       </c>
       <c r="D42" t="s">
-        <v>970</v>
+        <v>799</v>
       </c>
       <c r="E42" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F42" t="s">
         <v>644</v>
@@ -13079,6 +13088,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A4:G45">
+    <sortCondition ref="A4:A45"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13087,8 +13099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="A1:G22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13130,7 +13142,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -13179,7 +13191,7 @@
         <v>1047</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="G4">
         <v>150</v>
@@ -13202,7 +13214,7 @@
         <v>1048</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="G5">
         <v>150</v>
@@ -13248,7 +13260,7 @@
         <v>1050</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="G7">
         <v>150</v>
@@ -13555,7 +13567,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -13567,7 +13579,7 @@
         <v>1046</v>
       </c>
       <c r="E21" t="s">
-        <v>1046</v>
+        <v>1063</v>
       </c>
       <c r="F21" t="s">
         <v>644</v>
@@ -13578,7 +13590,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -13590,7 +13602,7 @@
         <v>1046</v>
       </c>
       <c r="E22" t="s">
-        <v>1063</v>
+        <v>1046</v>
       </c>
       <c r="F22" t="s">
         <v>644</v>
@@ -13600,6 +13612,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A4:G22">
+    <sortCondition ref="A4:A22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13608,8 +13623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13651,7 +13666,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -13700,7 +13715,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="G4">
         <v>150</v>
@@ -13723,7 +13738,7 @@
         <v>683</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="G5">
         <v>150</v>
@@ -13769,7 +13784,7 @@
         <v>874</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="G7">
         <v>150</v>

--- a/filters/db/teams-by-league.xlsx
+++ b/filters/db/teams-by-league.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20115" windowHeight="8520" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20115" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="NCAA" sheetId="1" r:id="rId1"/>
@@ -4064,8 +4064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G222"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -4150,10 +4150,10 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="F4" t="s">
         <v>644</v>
@@ -4164,7 +4164,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -4173,10 +4173,10 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F5" t="s">
         <v>644</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -4196,10 +4196,10 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F6" t="s">
         <v>644</v>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -4219,10 +4219,10 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F7" t="s">
         <v>644</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -4242,10 +4242,10 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F8" t="s">
         <v>644</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -4265,10 +4265,10 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F9" t="s">
         <v>644</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -4288,10 +4288,10 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F10" t="s">
         <v>644</v>
@@ -4302,7 +4302,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -4311,10 +4311,10 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F11" t="s">
         <v>644</v>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -4334,10 +4334,10 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F12" t="s">
         <v>644</v>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -4357,10 +4357,10 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F13" t="s">
         <v>644</v>
@@ -4371,7 +4371,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -4380,10 +4380,10 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>455</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
         <v>644</v>
@@ -9177,8 +9177,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G222">
-    <sortCondition ref="A2:A222"/>
+  <sortState ref="A4:G222">
+    <sortCondition ref="A4:A222"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10150,7 +10150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/filters/db/teams-by-league.xlsx
+++ b/filters/db/teams-by-league.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20115" windowHeight="8520"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20115" windowHeight="8520" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="NCAA" sheetId="1" r:id="rId1"/>
@@ -4064,8 +4064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G222"/>
+    <sheetView topLeftCell="E202" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4159,7 +4159,7 @@
         <v>644</v>
       </c>
       <c r="G4">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4182,7 +4182,7 @@
         <v>644</v>
       </c>
       <c r="G5">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4205,7 +4205,7 @@
         <v>644</v>
       </c>
       <c r="G6">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4228,7 +4228,7 @@
         <v>644</v>
       </c>
       <c r="G7">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4251,7 +4251,7 @@
         <v>644</v>
       </c>
       <c r="G8">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4274,7 +4274,7 @@
         <v>644</v>
       </c>
       <c r="G9">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -4297,7 +4297,7 @@
         <v>644</v>
       </c>
       <c r="G10">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4320,7 +4320,7 @@
         <v>644</v>
       </c>
       <c r="G11">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4343,7 +4343,7 @@
         <v>644</v>
       </c>
       <c r="G12">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -4366,7 +4366,7 @@
         <v>644</v>
       </c>
       <c r="G13">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -4389,7 +4389,7 @@
         <v>644</v>
       </c>
       <c r="G14">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4412,7 +4412,7 @@
         <v>644</v>
       </c>
       <c r="G15">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -4435,7 +4435,7 @@
         <v>644</v>
       </c>
       <c r="G16">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4458,7 +4458,7 @@
         <v>644</v>
       </c>
       <c r="G17">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4481,7 +4481,7 @@
         <v>644</v>
       </c>
       <c r="G18">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -4504,7 +4504,7 @@
         <v>644</v>
       </c>
       <c r="G19">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4527,7 +4527,7 @@
         <v>644</v>
       </c>
       <c r="G20">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4550,7 +4550,7 @@
         <v>644</v>
       </c>
       <c r="G21">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4573,7 +4573,7 @@
         <v>644</v>
       </c>
       <c r="G22">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -4596,7 +4596,7 @@
         <v>644</v>
       </c>
       <c r="G23">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -4619,7 +4619,7 @@
         <v>644</v>
       </c>
       <c r="G24">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -4642,7 +4642,7 @@
         <v>644</v>
       </c>
       <c r="G25">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -4665,7 +4665,7 @@
         <v>644</v>
       </c>
       <c r="G26">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -4688,7 +4688,7 @@
         <v>644</v>
       </c>
       <c r="G27">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -4711,7 +4711,7 @@
         <v>644</v>
       </c>
       <c r="G28">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -4734,7 +4734,7 @@
         <v>644</v>
       </c>
       <c r="G29">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -4757,7 +4757,7 @@
         <v>644</v>
       </c>
       <c r="G30">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -4780,7 +4780,7 @@
         <v>644</v>
       </c>
       <c r="G31">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -4803,7 +4803,7 @@
         <v>644</v>
       </c>
       <c r="G32">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -4826,7 +4826,7 @@
         <v>644</v>
       </c>
       <c r="G33">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -4849,7 +4849,7 @@
         <v>644</v>
       </c>
       <c r="G34">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -4872,7 +4872,7 @@
         <v>644</v>
       </c>
       <c r="G35">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -4895,7 +4895,7 @@
         <v>644</v>
       </c>
       <c r="G36">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -4918,7 +4918,7 @@
         <v>644</v>
       </c>
       <c r="G37">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -4941,7 +4941,7 @@
         <v>644</v>
       </c>
       <c r="G38">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -4964,7 +4964,7 @@
         <v>644</v>
       </c>
       <c r="G39">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -4987,7 +4987,7 @@
         <v>644</v>
       </c>
       <c r="G40">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -5010,7 +5010,7 @@
         <v>644</v>
       </c>
       <c r="G41">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -5033,7 +5033,7 @@
         <v>644</v>
       </c>
       <c r="G42">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -5056,7 +5056,7 @@
         <v>644</v>
       </c>
       <c r="G43">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -5079,7 +5079,7 @@
         <v>644</v>
       </c>
       <c r="G44">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -5102,7 +5102,7 @@
         <v>644</v>
       </c>
       <c r="G45">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -5125,7 +5125,7 @@
         <v>644</v>
       </c>
       <c r="G46">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -5148,7 +5148,7 @@
         <v>644</v>
       </c>
       <c r="G47">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -5171,7 +5171,7 @@
         <v>644</v>
       </c>
       <c r="G48">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -5194,7 +5194,7 @@
         <v>644</v>
       </c>
       <c r="G49">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -5217,7 +5217,7 @@
         <v>644</v>
       </c>
       <c r="G50">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -5240,7 +5240,7 @@
         <v>644</v>
       </c>
       <c r="G51">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -5263,7 +5263,7 @@
         <v>644</v>
       </c>
       <c r="G52">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -5286,7 +5286,7 @@
         <v>644</v>
       </c>
       <c r="G53">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -5309,7 +5309,7 @@
         <v>644</v>
       </c>
       <c r="G54">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -5332,7 +5332,7 @@
         <v>644</v>
       </c>
       <c r="G55">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -5355,7 +5355,7 @@
         <v>644</v>
       </c>
       <c r="G56">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -5378,7 +5378,7 @@
         <v>644</v>
       </c>
       <c r="G57">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -5401,7 +5401,7 @@
         <v>644</v>
       </c>
       <c r="G58">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -5424,7 +5424,7 @@
         <v>644</v>
       </c>
       <c r="G59">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -5447,7 +5447,7 @@
         <v>644</v>
       </c>
       <c r="G60">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -5470,7 +5470,7 @@
         <v>644</v>
       </c>
       <c r="G61">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -5493,7 +5493,7 @@
         <v>644</v>
       </c>
       <c r="G62">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -5516,7 +5516,7 @@
         <v>644</v>
       </c>
       <c r="G63">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -5539,7 +5539,7 @@
         <v>644</v>
       </c>
       <c r="G64">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -5562,7 +5562,7 @@
         <v>644</v>
       </c>
       <c r="G65">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -5585,7 +5585,7 @@
         <v>644</v>
       </c>
       <c r="G66">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -5608,7 +5608,7 @@
         <v>644</v>
       </c>
       <c r="G67">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -5631,7 +5631,7 @@
         <v>644</v>
       </c>
       <c r="G68">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -5654,7 +5654,7 @@
         <v>644</v>
       </c>
       <c r="G69">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -5677,7 +5677,7 @@
         <v>644</v>
       </c>
       <c r="G70">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -5700,7 +5700,7 @@
         <v>644</v>
       </c>
       <c r="G71">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -5723,7 +5723,7 @@
         <v>644</v>
       </c>
       <c r="G72">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -5746,7 +5746,7 @@
         <v>644</v>
       </c>
       <c r="G73">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -5769,7 +5769,7 @@
         <v>644</v>
       </c>
       <c r="G74">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -5792,7 +5792,7 @@
         <v>644</v>
       </c>
       <c r="G75">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -5815,7 +5815,7 @@
         <v>644</v>
       </c>
       <c r="G76">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -5838,7 +5838,7 @@
         <v>644</v>
       </c>
       <c r="G77">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -5861,7 +5861,7 @@
         <v>644</v>
       </c>
       <c r="G78">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -5884,7 +5884,7 @@
         <v>644</v>
       </c>
       <c r="G79">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -5907,7 +5907,7 @@
         <v>644</v>
       </c>
       <c r="G80">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -5930,7 +5930,7 @@
         <v>644</v>
       </c>
       <c r="G81">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -5953,7 +5953,7 @@
         <v>644</v>
       </c>
       <c r="G82">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -5976,7 +5976,7 @@
         <v>644</v>
       </c>
       <c r="G83">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -5999,7 +5999,7 @@
         <v>644</v>
       </c>
       <c r="G84">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -6022,7 +6022,7 @@
         <v>644</v>
       </c>
       <c r="G85">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -6045,7 +6045,7 @@
         <v>644</v>
       </c>
       <c r="G86">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -6068,7 +6068,7 @@
         <v>644</v>
       </c>
       <c r="G87">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -6091,7 +6091,7 @@
         <v>644</v>
       </c>
       <c r="G88">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -6114,7 +6114,7 @@
         <v>644</v>
       </c>
       <c r="G89">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -6137,7 +6137,7 @@
         <v>644</v>
       </c>
       <c r="G90">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -6160,7 +6160,7 @@
         <v>644</v>
       </c>
       <c r="G91">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -6183,7 +6183,7 @@
         <v>644</v>
       </c>
       <c r="G92">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -6206,7 +6206,7 @@
         <v>644</v>
       </c>
       <c r="G93">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -6229,7 +6229,7 @@
         <v>644</v>
       </c>
       <c r="G94">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -6252,7 +6252,7 @@
         <v>644</v>
       </c>
       <c r="G95">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -6275,7 +6275,7 @@
         <v>644</v>
       </c>
       <c r="G96">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -6298,7 +6298,7 @@
         <v>644</v>
       </c>
       <c r="G97">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -6321,7 +6321,7 @@
         <v>644</v>
       </c>
       <c r="G98">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -6344,7 +6344,7 @@
         <v>644</v>
       </c>
       <c r="G99">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -6367,7 +6367,7 @@
         <v>644</v>
       </c>
       <c r="G100">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -6390,7 +6390,7 @@
         <v>644</v>
       </c>
       <c r="G101">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -6413,7 +6413,7 @@
         <v>644</v>
       </c>
       <c r="G102">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -6436,7 +6436,7 @@
         <v>644</v>
       </c>
       <c r="G103">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -6459,7 +6459,7 @@
         <v>644</v>
       </c>
       <c r="G104">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -6482,7 +6482,7 @@
         <v>644</v>
       </c>
       <c r="G105">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -6505,7 +6505,7 @@
         <v>644</v>
       </c>
       <c r="G106">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -6528,7 +6528,7 @@
         <v>644</v>
       </c>
       <c r="G107">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -6551,7 +6551,7 @@
         <v>644</v>
       </c>
       <c r="G108">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -6574,7 +6574,7 @@
         <v>644</v>
       </c>
       <c r="G109">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -6597,7 +6597,7 @@
         <v>644</v>
       </c>
       <c r="G110">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -6620,7 +6620,7 @@
         <v>644</v>
       </c>
       <c r="G111">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -6643,7 +6643,7 @@
         <v>644</v>
       </c>
       <c r="G112">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -6666,7 +6666,7 @@
         <v>644</v>
       </c>
       <c r="G113">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -6689,7 +6689,7 @@
         <v>644</v>
       </c>
       <c r="G114">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -6712,7 +6712,7 @@
         <v>644</v>
       </c>
       <c r="G115">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -6735,7 +6735,7 @@
         <v>644</v>
       </c>
       <c r="G116">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -6758,7 +6758,7 @@
         <v>644</v>
       </c>
       <c r="G117">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -6781,7 +6781,7 @@
         <v>644</v>
       </c>
       <c r="G118">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -6804,7 +6804,7 @@
         <v>644</v>
       </c>
       <c r="G119">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -6827,7 +6827,7 @@
         <v>644</v>
       </c>
       <c r="G120">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -6850,7 +6850,7 @@
         <v>644</v>
       </c>
       <c r="G121">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -6873,7 +6873,7 @@
         <v>644</v>
       </c>
       <c r="G122">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -6896,7 +6896,7 @@
         <v>644</v>
       </c>
       <c r="G123">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -6919,7 +6919,7 @@
         <v>644</v>
       </c>
       <c r="G124">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -6942,7 +6942,7 @@
         <v>644</v>
       </c>
       <c r="G125">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -6965,7 +6965,7 @@
         <v>644</v>
       </c>
       <c r="G126">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -6988,7 +6988,7 @@
         <v>644</v>
       </c>
       <c r="G127">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -7011,7 +7011,7 @@
         <v>644</v>
       </c>
       <c r="G128">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -7034,7 +7034,7 @@
         <v>644</v>
       </c>
       <c r="G129">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -7057,7 +7057,7 @@
         <v>644</v>
       </c>
       <c r="G130">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -7080,7 +7080,7 @@
         <v>644</v>
       </c>
       <c r="G131">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -7103,7 +7103,7 @@
         <v>644</v>
       </c>
       <c r="G132">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -7126,7 +7126,7 @@
         <v>644</v>
       </c>
       <c r="G133">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -7149,7 +7149,7 @@
         <v>644</v>
       </c>
       <c r="G134">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -7172,7 +7172,7 @@
         <v>644</v>
       </c>
       <c r="G135">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -7195,7 +7195,7 @@
         <v>644</v>
       </c>
       <c r="G136">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -7218,7 +7218,7 @@
         <v>644</v>
       </c>
       <c r="G137">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -7241,7 +7241,7 @@
         <v>644</v>
       </c>
       <c r="G138">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -7264,7 +7264,7 @@
         <v>644</v>
       </c>
       <c r="G139">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -7287,7 +7287,7 @@
         <v>644</v>
       </c>
       <c r="G140">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -7310,7 +7310,7 @@
         <v>644</v>
       </c>
       <c r="G141">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -7333,7 +7333,7 @@
         <v>644</v>
       </c>
       <c r="G142">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -7356,7 +7356,7 @@
         <v>644</v>
       </c>
       <c r="G143">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -7379,7 +7379,7 @@
         <v>644</v>
       </c>
       <c r="G144">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -7402,7 +7402,7 @@
         <v>644</v>
       </c>
       <c r="G145">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -7425,7 +7425,7 @@
         <v>644</v>
       </c>
       <c r="G146">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -7448,7 +7448,7 @@
         <v>644</v>
       </c>
       <c r="G147">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -7471,7 +7471,7 @@
         <v>644</v>
       </c>
       <c r="G148">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -7494,7 +7494,7 @@
         <v>644</v>
       </c>
       <c r="G149">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -7517,7 +7517,7 @@
         <v>644</v>
       </c>
       <c r="G150">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -7540,7 +7540,7 @@
         <v>644</v>
       </c>
       <c r="G151">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -7563,7 +7563,7 @@
         <v>644</v>
       </c>
       <c r="G152">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -7586,7 +7586,7 @@
         <v>644</v>
       </c>
       <c r="G153">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -7609,7 +7609,7 @@
         <v>644</v>
       </c>
       <c r="G154">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -7632,7 +7632,7 @@
         <v>644</v>
       </c>
       <c r="G155">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -7655,7 +7655,7 @@
         <v>644</v>
       </c>
       <c r="G156">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -7678,7 +7678,7 @@
         <v>644</v>
       </c>
       <c r="G157">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -7701,7 +7701,7 @@
         <v>644</v>
       </c>
       <c r="G158">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -7724,7 +7724,7 @@
         <v>644</v>
       </c>
       <c r="G159">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -7747,7 +7747,7 @@
         <v>644</v>
       </c>
       <c r="G160">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -7770,7 +7770,7 @@
         <v>644</v>
       </c>
       <c r="G161">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -7793,7 +7793,7 @@
         <v>644</v>
       </c>
       <c r="G162">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -7816,7 +7816,7 @@
         <v>644</v>
       </c>
       <c r="G163">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -7839,7 +7839,7 @@
         <v>644</v>
       </c>
       <c r="G164">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -7862,7 +7862,7 @@
         <v>644</v>
       </c>
       <c r="G165">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -7885,7 +7885,7 @@
         <v>644</v>
       </c>
       <c r="G166">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -7908,7 +7908,7 @@
         <v>644</v>
       </c>
       <c r="G167">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -7931,7 +7931,7 @@
         <v>644</v>
       </c>
       <c r="G168">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -7954,7 +7954,7 @@
         <v>644</v>
       </c>
       <c r="G169">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -7977,7 +7977,7 @@
         <v>644</v>
       </c>
       <c r="G170">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -8000,7 +8000,7 @@
         <v>644</v>
       </c>
       <c r="G171">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -8023,7 +8023,7 @@
         <v>644</v>
       </c>
       <c r="G172">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -8046,7 +8046,7 @@
         <v>644</v>
       </c>
       <c r="G173">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -8069,7 +8069,7 @@
         <v>644</v>
       </c>
       <c r="G174">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -8092,7 +8092,7 @@
         <v>644</v>
       </c>
       <c r="G175">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -8115,7 +8115,7 @@
         <v>644</v>
       </c>
       <c r="G176">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -8138,7 +8138,7 @@
         <v>644</v>
       </c>
       <c r="G177">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -8161,7 +8161,7 @@
         <v>644</v>
       </c>
       <c r="G178">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -8184,7 +8184,7 @@
         <v>644</v>
       </c>
       <c r="G179">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -8207,7 +8207,7 @@
         <v>644</v>
       </c>
       <c r="G180">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -8230,7 +8230,7 @@
         <v>644</v>
       </c>
       <c r="G181">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -8253,7 +8253,7 @@
         <v>644</v>
       </c>
       <c r="G182">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -8276,7 +8276,7 @@
         <v>644</v>
       </c>
       <c r="G183">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -8299,7 +8299,7 @@
         <v>644</v>
       </c>
       <c r="G184">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -8322,7 +8322,7 @@
         <v>644</v>
       </c>
       <c r="G185">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -8345,7 +8345,7 @@
         <v>644</v>
       </c>
       <c r="G186">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -8368,7 +8368,7 @@
         <v>644</v>
       </c>
       <c r="G187">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -8391,7 +8391,7 @@
         <v>644</v>
       </c>
       <c r="G188">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -8414,7 +8414,7 @@
         <v>644</v>
       </c>
       <c r="G189">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -8437,7 +8437,7 @@
         <v>644</v>
       </c>
       <c r="G190">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -8460,7 +8460,7 @@
         <v>644</v>
       </c>
       <c r="G191">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -8483,7 +8483,7 @@
         <v>644</v>
       </c>
       <c r="G192">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -8506,7 +8506,7 @@
         <v>644</v>
       </c>
       <c r="G193">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -8529,7 +8529,7 @@
         <v>644</v>
       </c>
       <c r="G194">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -8552,7 +8552,7 @@
         <v>644</v>
       </c>
       <c r="G195">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -8575,7 +8575,7 @@
         <v>644</v>
       </c>
       <c r="G196">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -8598,7 +8598,7 @@
         <v>644</v>
       </c>
       <c r="G197">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -8621,7 +8621,7 @@
         <v>644</v>
       </c>
       <c r="G198">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -8644,7 +8644,7 @@
         <v>644</v>
       </c>
       <c r="G199">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -8667,7 +8667,7 @@
         <v>644</v>
       </c>
       <c r="G200">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -8690,7 +8690,7 @@
         <v>644</v>
       </c>
       <c r="G201">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -8713,7 +8713,7 @@
         <v>644</v>
       </c>
       <c r="G202">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -8736,7 +8736,7 @@
         <v>644</v>
       </c>
       <c r="G203">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -8759,7 +8759,7 @@
         <v>644</v>
       </c>
       <c r="G204">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -8782,7 +8782,7 @@
         <v>644</v>
       </c>
       <c r="G205">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -8805,7 +8805,7 @@
         <v>644</v>
       </c>
       <c r="G206">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -8828,7 +8828,7 @@
         <v>644</v>
       </c>
       <c r="G207">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -8851,7 +8851,7 @@
         <v>644</v>
       </c>
       <c r="G208">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -8874,7 +8874,7 @@
         <v>644</v>
       </c>
       <c r="G209">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -8897,7 +8897,7 @@
         <v>644</v>
       </c>
       <c r="G210">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -8920,7 +8920,7 @@
         <v>644</v>
       </c>
       <c r="G211">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -8943,7 +8943,7 @@
         <v>644</v>
       </c>
       <c r="G212">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -8966,7 +8966,7 @@
         <v>644</v>
       </c>
       <c r="G213">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -8989,7 +8989,7 @@
         <v>644</v>
       </c>
       <c r="G214">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -9012,7 +9012,7 @@
         <v>644</v>
       </c>
       <c r="G215">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -9035,7 +9035,7 @@
         <v>644</v>
       </c>
       <c r="G216">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -9058,7 +9058,7 @@
         <v>644</v>
       </c>
       <c r="G217">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -9081,7 +9081,7 @@
         <v>644</v>
       </c>
       <c r="G218">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -9104,7 +9104,7 @@
         <v>644</v>
       </c>
       <c r="G219">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -9127,7 +9127,7 @@
         <v>644</v>
       </c>
       <c r="G220">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -9150,7 +9150,7 @@
         <v>644</v>
       </c>
       <c r="G221">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -9173,7 +9173,7 @@
         <v>644</v>
       </c>
       <c r="G222">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -9189,7 +9189,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G4" sqref="G4:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9283,7 +9283,7 @@
         <v>644</v>
       </c>
       <c r="G4">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -9306,7 +9306,7 @@
         <v>644</v>
       </c>
       <c r="G5">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -9329,7 +9329,7 @@
         <v>644</v>
       </c>
       <c r="G6">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -9352,7 +9352,7 @@
         <v>644</v>
       </c>
       <c r="G7">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -9375,7 +9375,7 @@
         <v>644</v>
       </c>
       <c r="G8">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -9398,7 +9398,7 @@
         <v>644</v>
       </c>
       <c r="G9">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -9421,7 +9421,7 @@
         <v>644</v>
       </c>
       <c r="G10">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -9444,7 +9444,7 @@
         <v>644</v>
       </c>
       <c r="G11">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -9467,7 +9467,7 @@
         <v>644</v>
       </c>
       <c r="G12">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -9490,7 +9490,7 @@
         <v>644</v>
       </c>
       <c r="G13">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -9513,7 +9513,7 @@
         <v>644</v>
       </c>
       <c r="G14">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -9536,7 +9536,7 @@
         <v>644</v>
       </c>
       <c r="G15">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -9559,7 +9559,7 @@
         <v>644</v>
       </c>
       <c r="G16">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -9582,7 +9582,7 @@
         <v>644</v>
       </c>
       <c r="G17">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -9605,7 +9605,7 @@
         <v>644</v>
       </c>
       <c r="G18">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -9628,7 +9628,7 @@
         <v>644</v>
       </c>
       <c r="G19">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -9651,7 +9651,7 @@
         <v>644</v>
       </c>
       <c r="G20">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -9674,7 +9674,7 @@
         <v>644</v>
       </c>
       <c r="G21">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -9697,7 +9697,7 @@
         <v>644</v>
       </c>
       <c r="G22">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -9720,7 +9720,7 @@
         <v>644</v>
       </c>
       <c r="G23">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -9743,7 +9743,7 @@
         <v>644</v>
       </c>
       <c r="G24">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -9766,7 +9766,7 @@
         <v>644</v>
       </c>
       <c r="G25">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -9789,7 +9789,7 @@
         <v>644</v>
       </c>
       <c r="G26">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -9812,7 +9812,7 @@
         <v>644</v>
       </c>
       <c r="G27">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -9835,7 +9835,7 @@
         <v>644</v>
       </c>
       <c r="G28">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -9858,7 +9858,7 @@
         <v>644</v>
       </c>
       <c r="G29">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -9881,7 +9881,7 @@
         <v>644</v>
       </c>
       <c r="G30">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -9904,7 +9904,7 @@
         <v>644</v>
       </c>
       <c r="G31">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -9927,7 +9927,7 @@
         <v>644</v>
       </c>
       <c r="G32">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -9950,7 +9950,7 @@
         <v>644</v>
       </c>
       <c r="G33">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -9973,7 +9973,7 @@
         <v>644</v>
       </c>
       <c r="G34">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -9996,7 +9996,7 @@
         <v>644</v>
       </c>
       <c r="G35">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -10019,7 +10019,7 @@
         <v>644</v>
       </c>
       <c r="G36">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -10042,7 +10042,7 @@
         <v>644</v>
       </c>
       <c r="G37">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -10065,7 +10065,7 @@
         <v>644</v>
       </c>
       <c r="G38">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -10088,7 +10088,7 @@
         <v>644</v>
       </c>
       <c r="G39">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -10111,7 +10111,7 @@
         <v>644</v>
       </c>
       <c r="G40">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -10134,7 +10134,7 @@
         <v>644</v>
       </c>
       <c r="G41">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -10150,8 +10150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10245,7 +10245,7 @@
         <v>644</v>
       </c>
       <c r="G4">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -10268,7 +10268,7 @@
         <v>644</v>
       </c>
       <c r="G5">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -10291,7 +10291,7 @@
         <v>644</v>
       </c>
       <c r="G6">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -10314,7 +10314,7 @@
         <v>644</v>
       </c>
       <c r="G7">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -10337,7 +10337,7 @@
         <v>644</v>
       </c>
       <c r="G8">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -10360,7 +10360,7 @@
         <v>644</v>
       </c>
       <c r="G9">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -10383,7 +10383,7 @@
         <v>644</v>
       </c>
       <c r="G10">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -10406,7 +10406,7 @@
         <v>644</v>
       </c>
       <c r="G11">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -10429,7 +10429,7 @@
         <v>644</v>
       </c>
       <c r="G12">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -10452,7 +10452,7 @@
         <v>644</v>
       </c>
       <c r="G13">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -10475,7 +10475,7 @@
         <v>644</v>
       </c>
       <c r="G14">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -10498,7 +10498,7 @@
         <v>644</v>
       </c>
       <c r="G15">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -10521,7 +10521,7 @@
         <v>644</v>
       </c>
       <c r="G16">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -10544,7 +10544,7 @@
         <v>644</v>
       </c>
       <c r="G17">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -10567,7 +10567,7 @@
         <v>644</v>
       </c>
       <c r="G18">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -10590,7 +10590,7 @@
         <v>644</v>
       </c>
       <c r="G19">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -10613,7 +10613,7 @@
         <v>644</v>
       </c>
       <c r="G20">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -10636,7 +10636,7 @@
         <v>644</v>
       </c>
       <c r="G21">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -10659,7 +10659,7 @@
         <v>644</v>
       </c>
       <c r="G22">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -10682,7 +10682,7 @@
         <v>644</v>
       </c>
       <c r="G23">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -10705,7 +10705,7 @@
         <v>644</v>
       </c>
       <c r="G24">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -10728,7 +10728,7 @@
         <v>644</v>
       </c>
       <c r="G25">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -10751,7 +10751,7 @@
         <v>644</v>
       </c>
       <c r="G26">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -10774,7 +10774,7 @@
         <v>644</v>
       </c>
       <c r="G27">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -10797,7 +10797,7 @@
         <v>644</v>
       </c>
       <c r="G28">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -10820,7 +10820,7 @@
         <v>644</v>
       </c>
       <c r="G29">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -10843,7 +10843,7 @@
         <v>644</v>
       </c>
       <c r="G30">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -10866,7 +10866,7 @@
         <v>644</v>
       </c>
       <c r="G31">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -10889,7 +10889,7 @@
         <v>644</v>
       </c>
       <c r="G32">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -10912,7 +10912,7 @@
         <v>644</v>
       </c>
       <c r="G33">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -10935,7 +10935,7 @@
         <v>644</v>
       </c>
       <c r="G34">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -10958,7 +10958,7 @@
         <v>644</v>
       </c>
       <c r="G35">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -10981,7 +10981,7 @@
         <v>644</v>
       </c>
       <c r="G36">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -11004,7 +11004,7 @@
         <v>644</v>
       </c>
       <c r="G37">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -11027,7 +11027,7 @@
         <v>644</v>
       </c>
       <c r="G38">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -11050,7 +11050,7 @@
         <v>644</v>
       </c>
       <c r="G39">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -11073,7 +11073,7 @@
         <v>644</v>
       </c>
       <c r="G40">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -11096,7 +11096,7 @@
         <v>644</v>
       </c>
       <c r="G41">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -11108,8 +11108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11203,7 +11203,7 @@
         <v>644</v>
       </c>
       <c r="G4">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -11226,7 +11226,7 @@
         <v>644</v>
       </c>
       <c r="G5">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -11249,7 +11249,7 @@
         <v>644</v>
       </c>
       <c r="G6">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -11272,7 +11272,7 @@
         <v>644</v>
       </c>
       <c r="G7">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -11295,7 +11295,7 @@
         <v>644</v>
       </c>
       <c r="G8">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -11318,7 +11318,7 @@
         <v>644</v>
       </c>
       <c r="G9">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -11341,7 +11341,7 @@
         <v>644</v>
       </c>
       <c r="G10">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -11364,7 +11364,7 @@
         <v>644</v>
       </c>
       <c r="G11">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -11387,7 +11387,7 @@
         <v>644</v>
       </c>
       <c r="G12">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -11410,7 +11410,7 @@
         <v>644</v>
       </c>
       <c r="G13">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -11433,7 +11433,7 @@
         <v>644</v>
       </c>
       <c r="G14">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -11456,7 +11456,7 @@
         <v>644</v>
       </c>
       <c r="G15">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -11479,7 +11479,7 @@
         <v>644</v>
       </c>
       <c r="G16">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -11502,7 +11502,7 @@
         <v>644</v>
       </c>
       <c r="G17">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -11525,7 +11525,7 @@
         <v>644</v>
       </c>
       <c r="G18">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -11548,7 +11548,7 @@
         <v>644</v>
       </c>
       <c r="G19">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -11571,7 +11571,7 @@
         <v>644</v>
       </c>
       <c r="G20">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -11594,7 +11594,7 @@
         <v>644</v>
       </c>
       <c r="G21">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -11617,7 +11617,7 @@
         <v>644</v>
       </c>
       <c r="G22">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -11640,7 +11640,7 @@
         <v>644</v>
       </c>
       <c r="G23">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -11663,7 +11663,7 @@
         <v>644</v>
       </c>
       <c r="G24">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -11686,7 +11686,7 @@
         <v>644</v>
       </c>
       <c r="G25">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -11709,7 +11709,7 @@
         <v>644</v>
       </c>
       <c r="G26">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -11732,7 +11732,7 @@
         <v>644</v>
       </c>
       <c r="G27">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -11755,7 +11755,7 @@
         <v>644</v>
       </c>
       <c r="G28">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -11778,7 +11778,7 @@
         <v>644</v>
       </c>
       <c r="G29">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -11801,7 +11801,7 @@
         <v>644</v>
       </c>
       <c r="G30">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -11824,7 +11824,7 @@
         <v>644</v>
       </c>
       <c r="G31">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -11847,7 +11847,7 @@
         <v>644</v>
       </c>
       <c r="G32">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -11870,7 +11870,7 @@
         <v>644</v>
       </c>
       <c r="G33">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -11893,7 +11893,7 @@
         <v>644</v>
       </c>
       <c r="G34">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -11916,7 +11916,7 @@
         <v>644</v>
       </c>
       <c r="G35">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -11939,7 +11939,7 @@
         <v>644</v>
       </c>
       <c r="G36">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -11962,7 +11962,7 @@
         <v>644</v>
       </c>
       <c r="G37">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -11985,7 +11985,7 @@
         <v>644</v>
       </c>
       <c r="G38">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -12008,7 +12008,7 @@
         <v>644</v>
       </c>
       <c r="G39">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -12031,7 +12031,7 @@
         <v>644</v>
       </c>
       <c r="G40">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -12046,8 +12046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12141,7 +12141,7 @@
         <v>644</v>
       </c>
       <c r="G4">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -12164,7 +12164,7 @@
         <v>644</v>
       </c>
       <c r="G5">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -12187,7 +12187,7 @@
         <v>644</v>
       </c>
       <c r="G6">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -12210,7 +12210,7 @@
         <v>644</v>
       </c>
       <c r="G7">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -12233,7 +12233,7 @@
         <v>644</v>
       </c>
       <c r="G8">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -12256,7 +12256,7 @@
         <v>644</v>
       </c>
       <c r="G9">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -12279,7 +12279,7 @@
         <v>644</v>
       </c>
       <c r="G10">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -12302,7 +12302,7 @@
         <v>644</v>
       </c>
       <c r="G11">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -12325,7 +12325,7 @@
         <v>644</v>
       </c>
       <c r="G12">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -12348,7 +12348,7 @@
         <v>644</v>
       </c>
       <c r="G13">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -12371,7 +12371,7 @@
         <v>644</v>
       </c>
       <c r="G14">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -12394,7 +12394,7 @@
         <v>644</v>
       </c>
       <c r="G15">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -12417,7 +12417,7 @@
         <v>644</v>
       </c>
       <c r="G16">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -12440,7 +12440,7 @@
         <v>644</v>
       </c>
       <c r="G17">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -12463,7 +12463,7 @@
         <v>644</v>
       </c>
       <c r="G18">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -12486,7 +12486,7 @@
         <v>644</v>
       </c>
       <c r="G19">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -12509,7 +12509,7 @@
         <v>644</v>
       </c>
       <c r="G20">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -12532,7 +12532,7 @@
         <v>644</v>
       </c>
       <c r="G21">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -12555,7 +12555,7 @@
         <v>644</v>
       </c>
       <c r="G22">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -12578,7 +12578,7 @@
         <v>644</v>
       </c>
       <c r="G23">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -12601,7 +12601,7 @@
         <v>644</v>
       </c>
       <c r="G24">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -12624,7 +12624,7 @@
         <v>644</v>
       </c>
       <c r="G25">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -12647,7 +12647,7 @@
         <v>644</v>
       </c>
       <c r="G26">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -12670,7 +12670,7 @@
         <v>644</v>
       </c>
       <c r="G27">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -12693,7 +12693,7 @@
         <v>644</v>
       </c>
       <c r="G28">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -12716,7 +12716,7 @@
         <v>9</v>
       </c>
       <c r="G29">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -12739,7 +12739,7 @@
         <v>644</v>
       </c>
       <c r="G30">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -12762,7 +12762,7 @@
         <v>644</v>
       </c>
       <c r="G31">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -12785,7 +12785,7 @@
         <v>644</v>
       </c>
       <c r="G32">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -12808,7 +12808,7 @@
         <v>644</v>
       </c>
       <c r="G33">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -12831,7 +12831,7 @@
         <v>644</v>
       </c>
       <c r="G34">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -12854,7 +12854,7 @@
         <v>644</v>
       </c>
       <c r="G35">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -12877,7 +12877,7 @@
         <v>644</v>
       </c>
       <c r="G36">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -12900,7 +12900,7 @@
         <v>644</v>
       </c>
       <c r="G37">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -12923,7 +12923,7 @@
         <v>644</v>
       </c>
       <c r="G38">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -12946,7 +12946,7 @@
         <v>644</v>
       </c>
       <c r="G39">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -12969,7 +12969,7 @@
         <v>644</v>
       </c>
       <c r="G40">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -12992,7 +12992,7 @@
         <v>644</v>
       </c>
       <c r="G41">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -13015,7 +13015,7 @@
         <v>644</v>
       </c>
       <c r="G42">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -13038,7 +13038,7 @@
         <v>644</v>
       </c>
       <c r="G43">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -13061,7 +13061,7 @@
         <v>644</v>
       </c>
       <c r="G44">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -13084,7 +13084,7 @@
         <v>644</v>
       </c>
       <c r="G45">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -13099,8 +13099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13194,7 +13194,7 @@
         <v>644</v>
       </c>
       <c r="G4">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -13217,7 +13217,7 @@
         <v>644</v>
       </c>
       <c r="G5">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -13240,7 +13240,7 @@
         <v>644</v>
       </c>
       <c r="G6">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -13263,7 +13263,7 @@
         <v>644</v>
       </c>
       <c r="G7">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -13286,7 +13286,7 @@
         <v>644</v>
       </c>
       <c r="G8">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -13309,7 +13309,7 @@
         <v>644</v>
       </c>
       <c r="G9">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -13332,7 +13332,7 @@
         <v>644</v>
       </c>
       <c r="G10">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -13355,7 +13355,7 @@
         <v>644</v>
       </c>
       <c r="G11">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -13378,7 +13378,7 @@
         <v>644</v>
       </c>
       <c r="G12">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -13401,7 +13401,7 @@
         <v>644</v>
       </c>
       <c r="G13">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -13424,7 +13424,7 @@
         <v>644</v>
       </c>
       <c r="G14">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -13447,7 +13447,7 @@
         <v>644</v>
       </c>
       <c r="G15">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -13470,7 +13470,7 @@
         <v>644</v>
       </c>
       <c r="G16">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -13493,7 +13493,7 @@
         <v>644</v>
       </c>
       <c r="G17">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -13516,7 +13516,7 @@
         <v>644</v>
       </c>
       <c r="G18">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -13539,7 +13539,7 @@
         <v>644</v>
       </c>
       <c r="G19">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -13562,7 +13562,7 @@
         <v>644</v>
       </c>
       <c r="G20">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -13585,7 +13585,7 @@
         <v>644</v>
       </c>
       <c r="G21">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -13608,7 +13608,7 @@
         <v>644</v>
       </c>
       <c r="G22">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -13623,8 +13623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13718,7 +13718,7 @@
         <v>644</v>
       </c>
       <c r="G4">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -13741,7 +13741,7 @@
         <v>644</v>
       </c>
       <c r="G5">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -13764,7 +13764,7 @@
         <v>644</v>
       </c>
       <c r="G6">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -13787,7 +13787,7 @@
         <v>644</v>
       </c>
       <c r="G7">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -13810,7 +13810,7 @@
         <v>644</v>
       </c>
       <c r="G8">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/filters/db/teams-by-league.xlsx
+++ b/filters/db/teams-by-league.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20115" windowHeight="8520" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20115" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="NCAA" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="1072">
   <si>
     <t>id</t>
   </si>
@@ -1114,9 +1114,6 @@
     <t>UCONN</t>
   </si>
   <si>
-    <t>UCSB Banana Slugs</t>
-  </si>
-  <si>
     <t>UCSB</t>
   </si>
   <si>
@@ -3233,6 +3230,12 @@
   </si>
   <si>
     <t>nhl</t>
+  </si>
+  <si>
+    <t>UCSC Banana Slugs</t>
+  </si>
+  <si>
+    <t>UCSB Gauchos</t>
   </si>
 </sst>
 </file>
@@ -4062,10 +4065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G222"/>
+  <dimension ref="A1:G223"/>
   <sheetViews>
-    <sheetView topLeftCell="E202" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G222"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="H182" sqref="H182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4101,13 +4104,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -4130,10 +4133,10 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>643</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
@@ -4153,10 +4156,10 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G4">
         <v>400</v>
@@ -4176,10 +4179,10 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G5">
         <v>400</v>
@@ -4199,10 +4202,10 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G6">
         <v>400</v>
@@ -4222,10 +4225,10 @@
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G7">
         <v>400</v>
@@ -4245,10 +4248,10 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G8">
         <v>400</v>
@@ -4268,10 +4271,10 @@
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G9">
         <v>400</v>
@@ -4291,10 +4294,10 @@
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G10">
         <v>400</v>
@@ -4314,10 +4317,10 @@
         <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G11">
         <v>400</v>
@@ -4337,10 +4340,10 @@
         <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G12">
         <v>400</v>
@@ -4360,10 +4363,10 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G13">
         <v>400</v>
@@ -4386,7 +4389,7 @@
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G14">
         <v>400</v>
@@ -4406,10 +4409,10 @@
         <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F15" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G15">
         <v>400</v>
@@ -4429,10 +4432,10 @@
         <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F16" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G16">
         <v>400</v>
@@ -4452,10 +4455,10 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F17" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G17">
         <v>400</v>
@@ -4478,7 +4481,7 @@
         <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G18">
         <v>400</v>
@@ -4498,10 +4501,10 @@
         <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G19">
         <v>400</v>
@@ -4521,10 +4524,10 @@
         <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F20" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G20">
         <v>400</v>
@@ -4544,10 +4547,10 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G21">
         <v>400</v>
@@ -4567,10 +4570,10 @@
         <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F22" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G22">
         <v>400</v>
@@ -4590,10 +4593,10 @@
         <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F23" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G23">
         <v>400</v>
@@ -4613,10 +4616,10 @@
         <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F24" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G24">
         <v>400</v>
@@ -4636,10 +4639,10 @@
         <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G25">
         <v>400</v>
@@ -4659,10 +4662,10 @@
         <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F26" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G26">
         <v>400</v>
@@ -4682,10 +4685,10 @@
         <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F27" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G27">
         <v>400</v>
@@ -4705,10 +4708,10 @@
         <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F28" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G28">
         <v>400</v>
@@ -4728,10 +4731,10 @@
         <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F29" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G29">
         <v>400</v>
@@ -4751,10 +4754,10 @@
         <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F30" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G30">
         <v>400</v>
@@ -4777,7 +4780,7 @@
         <v>72</v>
       </c>
       <c r="F31" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G31">
         <v>400</v>
@@ -4797,10 +4800,10 @@
         <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F32" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G32">
         <v>400</v>
@@ -4820,10 +4823,10 @@
         <v>76</v>
       </c>
       <c r="E33" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F33" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G33">
         <v>400</v>
@@ -4843,10 +4846,10 @@
         <v>78</v>
       </c>
       <c r="E34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F34" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G34">
         <v>400</v>
@@ -4869,7 +4872,7 @@
         <v>80</v>
       </c>
       <c r="F35" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G35">
         <v>400</v>
@@ -4892,7 +4895,7 @@
         <v>357</v>
       </c>
       <c r="F36" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G36">
         <v>400</v>
@@ -4912,10 +4915,10 @@
         <v>82</v>
       </c>
       <c r="E37" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F37" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G37">
         <v>400</v>
@@ -4935,10 +4938,10 @@
         <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G38">
         <v>400</v>
@@ -4958,10 +4961,10 @@
         <v>86</v>
       </c>
       <c r="E39" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F39" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G39">
         <v>400</v>
@@ -4981,10 +4984,10 @@
         <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F40" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G40">
         <v>400</v>
@@ -5004,10 +5007,10 @@
         <v>90</v>
       </c>
       <c r="E41" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F41" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G41">
         <v>400</v>
@@ -5027,10 +5030,10 @@
         <v>92</v>
       </c>
       <c r="E42" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F42" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G42">
         <v>400</v>
@@ -5050,10 +5053,10 @@
         <v>94</v>
       </c>
       <c r="E43" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F43" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G43">
         <v>400</v>
@@ -5073,10 +5076,10 @@
         <v>96</v>
       </c>
       <c r="E44" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F44" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G44">
         <v>400</v>
@@ -5096,10 +5099,10 @@
         <v>98</v>
       </c>
       <c r="E45" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G45">
         <v>400</v>
@@ -5119,10 +5122,10 @@
         <v>100</v>
       </c>
       <c r="E46" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G46">
         <v>400</v>
@@ -5142,10 +5145,10 @@
         <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F47" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G47">
         <v>400</v>
@@ -5165,10 +5168,10 @@
         <v>104</v>
       </c>
       <c r="E48" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F48" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G48">
         <v>400</v>
@@ -5188,10 +5191,10 @@
         <v>106</v>
       </c>
       <c r="E49" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F49" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G49">
         <v>400</v>
@@ -5211,10 +5214,10 @@
         <v>108</v>
       </c>
       <c r="E50" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F50" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G50">
         <v>400</v>
@@ -5234,10 +5237,10 @@
         <v>110</v>
       </c>
       <c r="E51" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F51" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G51">
         <v>400</v>
@@ -5257,10 +5260,10 @@
         <v>112</v>
       </c>
       <c r="E52" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F52" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G52">
         <v>400</v>
@@ -5280,10 +5283,10 @@
         <v>114</v>
       </c>
       <c r="E53" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F53" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G53">
         <v>400</v>
@@ -5303,10 +5306,10 @@
         <v>116</v>
       </c>
       <c r="E54" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F54" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G54">
         <v>400</v>
@@ -5326,10 +5329,10 @@
         <v>118</v>
       </c>
       <c r="E55" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F55" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G55">
         <v>400</v>
@@ -5349,10 +5352,10 @@
         <v>124</v>
       </c>
       <c r="E56" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F56" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G56">
         <v>400</v>
@@ -5372,10 +5375,10 @@
         <v>120</v>
       </c>
       <c r="E57" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F57" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G57">
         <v>400</v>
@@ -5395,10 +5398,10 @@
         <v>122</v>
       </c>
       <c r="E58" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F58" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G58">
         <v>400</v>
@@ -5418,10 +5421,10 @@
         <v>126</v>
       </c>
       <c r="E59" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F59" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G59">
         <v>400</v>
@@ -5441,10 +5444,10 @@
         <v>128</v>
       </c>
       <c r="E60" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F60" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G60">
         <v>400</v>
@@ -5464,10 +5467,10 @@
         <v>130</v>
       </c>
       <c r="E61" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F61" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G61">
         <v>400</v>
@@ -5487,10 +5490,10 @@
         <v>132</v>
       </c>
       <c r="E62" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F62" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G62">
         <v>400</v>
@@ -5510,10 +5513,10 @@
         <v>133</v>
       </c>
       <c r="E63" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F63" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G63">
         <v>400</v>
@@ -5533,10 +5536,10 @@
         <v>135</v>
       </c>
       <c r="E64" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F64" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G64">
         <v>400</v>
@@ -5556,10 +5559,10 @@
         <v>137</v>
       </c>
       <c r="E65" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F65" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G65">
         <v>400</v>
@@ -5579,10 +5582,10 @@
         <v>139</v>
       </c>
       <c r="E66" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F66" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G66">
         <v>400</v>
@@ -5602,10 +5605,10 @@
         <v>141</v>
       </c>
       <c r="E67" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F67" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G67">
         <v>400</v>
@@ -5625,10 +5628,10 @@
         <v>143</v>
       </c>
       <c r="E68" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F68" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G68">
         <v>400</v>
@@ -5648,10 +5651,10 @@
         <v>145</v>
       </c>
       <c r="E69" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F69" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G69">
         <v>400</v>
@@ -5671,10 +5674,10 @@
         <v>147</v>
       </c>
       <c r="E70" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F70" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G70">
         <v>400</v>
@@ -5694,10 +5697,10 @@
         <v>149</v>
       </c>
       <c r="E71" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F71" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G71">
         <v>400</v>
@@ -5717,10 +5720,10 @@
         <v>151</v>
       </c>
       <c r="E72" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F72" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G72">
         <v>400</v>
@@ -5740,10 +5743,10 @@
         <v>153</v>
       </c>
       <c r="E73" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F73" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G73">
         <v>400</v>
@@ -5763,10 +5766,10 @@
         <v>155</v>
       </c>
       <c r="E74" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F74" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G74">
         <v>400</v>
@@ -5786,10 +5789,10 @@
         <v>157</v>
       </c>
       <c r="E75" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F75" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G75">
         <v>400</v>
@@ -5809,10 +5812,10 @@
         <v>159</v>
       </c>
       <c r="E76" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F76" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G76">
         <v>400</v>
@@ -5832,10 +5835,10 @@
         <v>161</v>
       </c>
       <c r="E77" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F77" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G77">
         <v>400</v>
@@ -5855,10 +5858,10 @@
         <v>163</v>
       </c>
       <c r="E78" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F78" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G78">
         <v>400</v>
@@ -5878,10 +5881,10 @@
         <v>165</v>
       </c>
       <c r="E79" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F79" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G79">
         <v>400</v>
@@ -5901,10 +5904,10 @@
         <v>167</v>
       </c>
       <c r="E80" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F80" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G80">
         <v>400</v>
@@ -5924,10 +5927,10 @@
         <v>169</v>
       </c>
       <c r="E81" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F81" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G81">
         <v>400</v>
@@ -5947,10 +5950,10 @@
         <v>171</v>
       </c>
       <c r="E82" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F82" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G82">
         <v>400</v>
@@ -5970,10 +5973,10 @@
         <v>173</v>
       </c>
       <c r="E83" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F83" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G83">
         <v>400</v>
@@ -5993,10 +5996,10 @@
         <v>175</v>
       </c>
       <c r="E84" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F84" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G84">
         <v>400</v>
@@ -6016,10 +6019,10 @@
         <v>177</v>
       </c>
       <c r="E85" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F85" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G85">
         <v>400</v>
@@ -6039,10 +6042,10 @@
         <v>179</v>
       </c>
       <c r="E86" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F86" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G86">
         <v>400</v>
@@ -6062,10 +6065,10 @@
         <v>181</v>
       </c>
       <c r="E87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F87" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G87">
         <v>400</v>
@@ -6085,10 +6088,10 @@
         <v>183</v>
       </c>
       <c r="E88" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F88" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G88">
         <v>400</v>
@@ -6108,10 +6111,10 @@
         <v>185</v>
       </c>
       <c r="E89" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F89" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G89">
         <v>400</v>
@@ -6131,10 +6134,10 @@
         <v>187</v>
       </c>
       <c r="E90" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F90" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G90">
         <v>400</v>
@@ -6154,10 +6157,10 @@
         <v>189</v>
       </c>
       <c r="E91" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F91" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G91">
         <v>400</v>
@@ -6177,10 +6180,10 @@
         <v>191</v>
       </c>
       <c r="E92" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F92" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G92">
         <v>400</v>
@@ -6200,10 +6203,10 @@
         <v>191</v>
       </c>
       <c r="E93" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F93" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G93">
         <v>400</v>
@@ -6226,7 +6229,7 @@
         <v>194</v>
       </c>
       <c r="F94" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G94">
         <v>400</v>
@@ -6246,10 +6249,10 @@
         <v>196</v>
       </c>
       <c r="E95" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F95" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G95">
         <v>400</v>
@@ -6269,10 +6272,10 @@
         <v>198</v>
       </c>
       <c r="E96" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F96" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G96">
         <v>400</v>
@@ -6292,10 +6295,10 @@
         <v>200</v>
       </c>
       <c r="E97" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F97" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G97">
         <v>400</v>
@@ -6315,10 +6318,10 @@
         <v>202</v>
       </c>
       <c r="E98" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F98" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G98">
         <v>400</v>
@@ -6338,10 +6341,10 @@
         <v>204</v>
       </c>
       <c r="E99" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F99" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G99">
         <v>400</v>
@@ -6361,10 +6364,10 @@
         <v>206</v>
       </c>
       <c r="E100" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F100" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G100">
         <v>400</v>
@@ -6384,10 +6387,10 @@
         <v>208</v>
       </c>
       <c r="E101" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F101" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G101">
         <v>400</v>
@@ -6407,10 +6410,10 @@
         <v>214</v>
       </c>
       <c r="E102" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F102" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G102">
         <v>400</v>
@@ -6430,10 +6433,10 @@
         <v>212</v>
       </c>
       <c r="E103" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F103" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G103">
         <v>400</v>
@@ -6456,7 +6459,7 @@
         <v>210</v>
       </c>
       <c r="F104" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G104">
         <v>400</v>
@@ -6476,10 +6479,10 @@
         <v>216</v>
       </c>
       <c r="E105" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F105" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G105">
         <v>400</v>
@@ -6499,10 +6502,10 @@
         <v>218</v>
       </c>
       <c r="E106" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F106" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G106">
         <v>400</v>
@@ -6522,10 +6525,10 @@
         <v>220</v>
       </c>
       <c r="E107" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F107" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G107">
         <v>400</v>
@@ -6548,7 +6551,7 @@
         <v>222</v>
       </c>
       <c r="F108" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G108">
         <v>400</v>
@@ -6568,10 +6571,10 @@
         <v>224</v>
       </c>
       <c r="E109" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F109" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G109">
         <v>400</v>
@@ -6591,10 +6594,10 @@
         <v>228</v>
       </c>
       <c r="E110" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F110" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G110">
         <v>400</v>
@@ -6614,10 +6617,10 @@
         <v>226</v>
       </c>
       <c r="E111" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F111" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G111">
         <v>400</v>
@@ -6637,10 +6640,10 @@
         <v>230</v>
       </c>
       <c r="E112" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F112" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G112">
         <v>400</v>
@@ -6660,10 +6663,10 @@
         <v>232</v>
       </c>
       <c r="E113" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F113" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G113">
         <v>400</v>
@@ -6683,10 +6686,10 @@
         <v>238</v>
       </c>
       <c r="E114" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F114" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G114">
         <v>400</v>
@@ -6706,10 +6709,10 @@
         <v>240</v>
       </c>
       <c r="E115" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F115" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G115">
         <v>400</v>
@@ -6729,10 +6732,10 @@
         <v>242</v>
       </c>
       <c r="E116" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F116" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G116">
         <v>400</v>
@@ -6752,10 +6755,10 @@
         <v>244</v>
       </c>
       <c r="E117" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F117" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G117">
         <v>400</v>
@@ -6775,10 +6778,10 @@
         <v>246</v>
       </c>
       <c r="E118" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F118" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G118">
         <v>400</v>
@@ -6798,10 +6801,10 @@
         <v>248</v>
       </c>
       <c r="E119" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F119" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G119">
         <v>400</v>
@@ -6821,10 +6824,10 @@
         <v>249</v>
       </c>
       <c r="E120" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F120" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G120">
         <v>400</v>
@@ -6844,10 +6847,10 @@
         <v>251</v>
       </c>
       <c r="E121" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F121" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G121">
         <v>400</v>
@@ -6867,10 +6870,10 @@
         <v>253</v>
       </c>
       <c r="E122" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F122" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G122">
         <v>400</v>
@@ -6890,10 +6893,10 @@
         <v>255</v>
       </c>
       <c r="E123" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F123" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G123">
         <v>400</v>
@@ -6913,10 +6916,10 @@
         <v>257</v>
       </c>
       <c r="E124" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F124" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G124">
         <v>400</v>
@@ -6936,10 +6939,10 @@
         <v>259</v>
       </c>
       <c r="E125" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F125" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G125">
         <v>400</v>
@@ -6962,7 +6965,7 @@
         <v>234</v>
       </c>
       <c r="F126" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G126">
         <v>400</v>
@@ -6985,7 +6988,7 @@
         <v>236</v>
       </c>
       <c r="F127" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G127">
         <v>400</v>
@@ -7008,7 +7011,7 @@
         <v>261</v>
       </c>
       <c r="F128" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G128">
         <v>400</v>
@@ -7028,10 +7031,10 @@
         <v>263</v>
       </c>
       <c r="E129" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F129" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G129">
         <v>400</v>
@@ -7051,10 +7054,10 @@
         <v>265</v>
       </c>
       <c r="E130" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F130" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G130">
         <v>400</v>
@@ -7074,10 +7077,10 @@
         <v>267</v>
       </c>
       <c r="E131" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F131" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G131">
         <v>400</v>
@@ -7097,10 +7100,10 @@
         <v>269</v>
       </c>
       <c r="E132" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F132" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G132">
         <v>400</v>
@@ -7120,10 +7123,10 @@
         <v>271</v>
       </c>
       <c r="E133" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F133" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G133">
         <v>400</v>
@@ -7143,10 +7146,10 @@
         <v>273</v>
       </c>
       <c r="E134" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F134" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G134">
         <v>400</v>
@@ -7166,10 +7169,10 @@
         <v>275</v>
       </c>
       <c r="E135" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F135" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G135">
         <v>400</v>
@@ -7189,10 +7192,10 @@
         <v>277</v>
       </c>
       <c r="E136" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F136" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G136">
         <v>400</v>
@@ -7212,10 +7215,10 @@
         <v>277</v>
       </c>
       <c r="E137" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F137" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G137">
         <v>400</v>
@@ -7235,10 +7238,10 @@
         <v>279</v>
       </c>
       <c r="E138" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F138" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G138">
         <v>400</v>
@@ -7258,10 +7261,10 @@
         <v>281</v>
       </c>
       <c r="E139" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F139" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G139">
         <v>400</v>
@@ -7281,10 +7284,10 @@
         <v>283</v>
       </c>
       <c r="E140" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F140" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G140">
         <v>400</v>
@@ -7304,10 +7307,10 @@
         <v>285</v>
       </c>
       <c r="E141" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F141" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G141">
         <v>400</v>
@@ -7327,10 +7330,10 @@
         <v>287</v>
       </c>
       <c r="E142" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F142" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G142">
         <v>400</v>
@@ -7350,10 +7353,10 @@
         <v>289</v>
       </c>
       <c r="E143" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F143" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G143">
         <v>400</v>
@@ -7373,10 +7376,10 @@
         <v>291</v>
       </c>
       <c r="E144" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F144" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G144">
         <v>400</v>
@@ -7396,10 +7399,10 @@
         <v>293</v>
       </c>
       <c r="E145" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F145" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G145">
         <v>400</v>
@@ -7419,10 +7422,10 @@
         <v>295</v>
       </c>
       <c r="E146" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F146" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G146">
         <v>400</v>
@@ -7442,10 +7445,10 @@
         <v>297</v>
       </c>
       <c r="E147" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F147" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G147">
         <v>400</v>
@@ -7465,10 +7468,10 @@
         <v>299</v>
       </c>
       <c r="E148" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F148" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G148">
         <v>400</v>
@@ -7488,10 +7491,10 @@
         <v>301</v>
       </c>
       <c r="E149" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F149" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G149">
         <v>400</v>
@@ -7511,10 +7514,10 @@
         <v>302</v>
       </c>
       <c r="E150" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F150" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G150">
         <v>400</v>
@@ -7534,10 +7537,10 @@
         <v>304</v>
       </c>
       <c r="E151" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F151" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G151">
         <v>400</v>
@@ -7557,10 +7560,10 @@
         <v>306</v>
       </c>
       <c r="E152" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F152" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G152">
         <v>400</v>
@@ -7580,10 +7583,10 @@
         <v>308</v>
       </c>
       <c r="E153" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F153" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G153">
         <v>400</v>
@@ -7603,10 +7606,10 @@
         <v>308</v>
       </c>
       <c r="E154" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F154" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G154">
         <v>400</v>
@@ -7626,10 +7629,10 @@
         <v>311</v>
       </c>
       <c r="E155" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F155" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G155">
         <v>400</v>
@@ -7649,10 +7652,10 @@
         <v>314</v>
       </c>
       <c r="E156" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F156" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G156">
         <v>400</v>
@@ -7675,7 +7678,7 @@
         <v>316</v>
       </c>
       <c r="F157" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G157">
         <v>400</v>
@@ -7695,10 +7698,10 @@
         <v>318</v>
       </c>
       <c r="E158" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F158" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G158">
         <v>400</v>
@@ -7718,10 +7721,10 @@
         <v>320</v>
       </c>
       <c r="E159" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F159" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G159">
         <v>400</v>
@@ -7744,7 +7747,7 @@
         <v>313</v>
       </c>
       <c r="F160" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G160">
         <v>400</v>
@@ -7764,10 +7767,10 @@
         <v>322</v>
       </c>
       <c r="E161" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F161" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G161">
         <v>400</v>
@@ -7787,10 +7790,10 @@
         <v>324</v>
       </c>
       <c r="E162" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F162" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G162">
         <v>400</v>
@@ -7810,10 +7813,10 @@
         <v>328</v>
       </c>
       <c r="E163" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F163" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G163">
         <v>400</v>
@@ -7833,10 +7836,10 @@
         <v>326</v>
       </c>
       <c r="E164" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F164" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G164">
         <v>400</v>
@@ -7856,10 +7859,10 @@
         <v>330</v>
       </c>
       <c r="E165" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F165" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G165">
         <v>400</v>
@@ -7879,10 +7882,10 @@
         <v>331</v>
       </c>
       <c r="E166" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F166" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G166">
         <v>400</v>
@@ -7902,10 +7905,10 @@
         <v>333</v>
       </c>
       <c r="E167" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F167" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G167">
         <v>400</v>
@@ -7928,7 +7931,7 @@
         <v>335</v>
       </c>
       <c r="F168" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G168">
         <v>400</v>
@@ -7948,10 +7951,10 @@
         <v>337</v>
       </c>
       <c r="E169" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F169" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G169">
         <v>400</v>
@@ -7971,10 +7974,10 @@
         <v>339</v>
       </c>
       <c r="E170" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F170" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G170">
         <v>400</v>
@@ -7994,10 +7997,10 @@
         <v>343</v>
       </c>
       <c r="E171" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F171" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G171">
         <v>400</v>
@@ -8017,10 +8020,10 @@
         <v>341</v>
       </c>
       <c r="E172" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F172" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G172">
         <v>400</v>
@@ -8040,10 +8043,10 @@
         <v>345</v>
       </c>
       <c r="E173" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F173" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G173">
         <v>400</v>
@@ -8063,10 +8066,10 @@
         <v>347</v>
       </c>
       <c r="E174" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F174" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G174">
         <v>400</v>
@@ -8086,10 +8089,10 @@
         <v>349</v>
       </c>
       <c r="E175" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F175" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G175">
         <v>400</v>
@@ -8109,10 +8112,10 @@
         <v>351</v>
       </c>
       <c r="E176" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F176" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G176">
         <v>400</v>
@@ -8132,10 +8135,10 @@
         <v>353</v>
       </c>
       <c r="E177" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F177" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G177">
         <v>400</v>
@@ -8155,10 +8158,10 @@
         <v>355</v>
       </c>
       <c r="E178" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F178" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G178">
         <v>400</v>
@@ -8178,10 +8181,10 @@
         <v>359</v>
       </c>
       <c r="E179" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F179" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G179">
         <v>400</v>
@@ -8204,7 +8207,7 @@
         <v>361</v>
       </c>
       <c r="F180" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G180">
         <v>400</v>
@@ -8224,10 +8227,10 @@
         <v>363</v>
       </c>
       <c r="E181" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F181" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G181">
         <v>400</v>
@@ -8235,22 +8238,22 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" t="s">
         <v>364</v>
       </c>
-      <c r="B182" t="s">
-        <v>8</v>
-      </c>
-      <c r="C182" t="s">
-        <v>17</v>
-      </c>
-      <c r="D182" t="s">
-        <v>365</v>
-      </c>
       <c r="E182" t="s">
-        <v>609</v>
+        <v>364</v>
       </c>
       <c r="F182" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G182">
         <v>400</v>
@@ -8258,7 +8261,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>366</v>
+        <v>1070</v>
       </c>
       <c r="B183" t="s">
         <v>8</v>
@@ -8267,13 +8270,13 @@
         <v>17</v>
       </c>
       <c r="D183" t="s">
-        <v>367</v>
+        <v>608</v>
       </c>
       <c r="E183" t="s">
-        <v>367</v>
+        <v>608</v>
       </c>
       <c r="F183" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G183">
         <v>400</v>
@@ -8281,7 +8284,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B184" t="s">
         <v>8</v>
@@ -8290,13 +8293,13 @@
         <v>17</v>
       </c>
       <c r="D184" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E184" t="s">
-        <v>610</v>
+        <v>366</v>
       </c>
       <c r="F184" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G184">
         <v>400</v>
@@ -8304,7 +8307,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B185" t="s">
         <v>8</v>
@@ -8313,13 +8316,13 @@
         <v>17</v>
       </c>
       <c r="D185" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="E185" t="s">
-        <v>377</v>
+        <v>609</v>
       </c>
       <c r="F185" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G185">
         <v>400</v>
@@ -8327,7 +8330,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B186" t="s">
         <v>8</v>
@@ -8336,13 +8339,13 @@
         <v>17</v>
       </c>
       <c r="D186" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="E186" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="F186" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G186">
         <v>400</v>
@@ -8350,7 +8353,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B187" t="s">
         <v>8</v>
@@ -8359,13 +8362,13 @@
         <v>17</v>
       </c>
       <c r="D187" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E187" t="s">
-        <v>611</v>
+        <v>370</v>
       </c>
       <c r="F187" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G187">
         <v>400</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B188" t="s">
         <v>8</v>
@@ -8382,13 +8385,13 @@
         <v>17</v>
       </c>
       <c r="D188" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E188" t="s">
-        <v>375</v>
+        <v>610</v>
       </c>
       <c r="F188" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G188">
         <v>400</v>
@@ -8396,7 +8399,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B189" t="s">
         <v>8</v>
@@ -8405,13 +8408,13 @@
         <v>17</v>
       </c>
       <c r="D189" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E189" t="s">
-        <v>612</v>
+        <v>374</v>
       </c>
       <c r="F189" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G189">
         <v>400</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B190" t="s">
         <v>8</v>
@@ -8428,13 +8431,13 @@
         <v>17</v>
       </c>
       <c r="D190" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E190" t="s">
-        <v>381</v>
+        <v>611</v>
       </c>
       <c r="F190" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G190">
         <v>400</v>
@@ -8442,7 +8445,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B191" t="s">
         <v>8</v>
@@ -8451,13 +8454,13 @@
         <v>17</v>
       </c>
       <c r="D191" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E191" t="s">
-        <v>613</v>
+        <v>380</v>
       </c>
       <c r="F191" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G191">
         <v>400</v>
@@ -8465,7 +8468,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B192" t="s">
         <v>8</v>
@@ -8474,13 +8477,13 @@
         <v>17</v>
       </c>
       <c r="D192" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E192" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F192" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G192">
         <v>400</v>
@@ -8488,7 +8491,7 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B193" t="s">
         <v>8</v>
@@ -8497,13 +8500,13 @@
         <v>17</v>
       </c>
       <c r="D193" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E193" t="s">
-        <v>387</v>
+        <v>613</v>
       </c>
       <c r="F193" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G193">
         <v>400</v>
@@ -8511,7 +8514,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B194" t="s">
         <v>8</v>
@@ -8520,13 +8523,13 @@
         <v>17</v>
       </c>
       <c r="D194" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E194" t="s">
-        <v>615</v>
+        <v>386</v>
       </c>
       <c r="F194" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G194">
         <v>400</v>
@@ -8534,7 +8537,7 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B195" t="s">
         <v>8</v>
@@ -8543,13 +8546,13 @@
         <v>17</v>
       </c>
       <c r="D195" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E195" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F195" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G195">
         <v>400</v>
@@ -8557,7 +8560,7 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B196" t="s">
         <v>8</v>
@@ -8566,13 +8569,13 @@
         <v>17</v>
       </c>
       <c r="D196" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E196" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F196" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G196">
         <v>400</v>
@@ -8580,7 +8583,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B197" t="s">
         <v>8</v>
@@ -8589,13 +8592,13 @@
         <v>17</v>
       </c>
       <c r="D197" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E197" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F197" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G197">
         <v>400</v>
@@ -8603,7 +8606,7 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B198" t="s">
         <v>8</v>
@@ -8612,13 +8615,13 @@
         <v>17</v>
       </c>
       <c r="D198" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E198" t="s">
-        <v>397</v>
+        <v>617</v>
       </c>
       <c r="F198" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G198">
         <v>400</v>
@@ -8626,7 +8629,7 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B199" t="s">
         <v>8</v>
@@ -8635,13 +8638,13 @@
         <v>17</v>
       </c>
       <c r="D199" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E199" t="s">
-        <v>619</v>
+        <v>396</v>
       </c>
       <c r="F199" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G199">
         <v>400</v>
@@ -8649,7 +8652,7 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B200" t="s">
         <v>8</v>
@@ -8658,13 +8661,13 @@
         <v>17</v>
       </c>
       <c r="D200" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E200" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F200" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G200">
         <v>400</v>
@@ -8672,7 +8675,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B201" t="s">
         <v>8</v>
@@ -8681,13 +8684,13 @@
         <v>17</v>
       </c>
       <c r="D201" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E201" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F201" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G201">
         <v>400</v>
@@ -8695,7 +8698,7 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B202" t="s">
         <v>8</v>
@@ -8704,13 +8707,13 @@
         <v>17</v>
       </c>
       <c r="D202" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E202" t="s">
         <v>621</v>
       </c>
       <c r="F202" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G202">
         <v>400</v>
@@ -8718,7 +8721,7 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B203" t="s">
         <v>8</v>
@@ -8727,13 +8730,13 @@
         <v>17</v>
       </c>
       <c r="D203" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E203" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F203" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G203">
         <v>400</v>
@@ -8741,7 +8744,7 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B204" t="s">
         <v>8</v>
@@ -8750,13 +8753,13 @@
         <v>17</v>
       </c>
       <c r="D204" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E204" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F204" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G204">
         <v>400</v>
@@ -8764,7 +8767,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B205" t="s">
         <v>8</v>
@@ -8773,13 +8776,13 @@
         <v>17</v>
       </c>
       <c r="D205" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E205" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F205" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G205">
         <v>400</v>
@@ -8787,7 +8790,7 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B206" t="s">
         <v>8</v>
@@ -8796,13 +8799,13 @@
         <v>17</v>
       </c>
       <c r="D206" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E206" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F206" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G206">
         <v>400</v>
@@ -8810,7 +8813,7 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B207" t="s">
         <v>8</v>
@@ -8819,13 +8822,13 @@
         <v>17</v>
       </c>
       <c r="D207" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E207" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F207" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G207">
         <v>400</v>
@@ -8833,7 +8836,7 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B208" t="s">
         <v>8</v>
@@ -8842,13 +8845,13 @@
         <v>17</v>
       </c>
       <c r="D208" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E208" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F208" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G208">
         <v>400</v>
@@ -8856,7 +8859,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B209" t="s">
         <v>8</v>
@@ -8865,13 +8868,13 @@
         <v>17</v>
       </c>
       <c r="D209" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E209" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F209" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G209">
         <v>400</v>
@@ -8879,7 +8882,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B210" t="s">
         <v>8</v>
@@ -8888,13 +8891,13 @@
         <v>17</v>
       </c>
       <c r="D210" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E210" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F210" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G210">
         <v>400</v>
@@ -8902,7 +8905,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B211" t="s">
         <v>8</v>
@@ -8911,13 +8914,13 @@
         <v>17</v>
       </c>
       <c r="D211" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E211" t="s">
-        <v>421</v>
+        <v>629</v>
       </c>
       <c r="F211" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G211">
         <v>400</v>
@@ -8925,7 +8928,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B212" t="s">
         <v>8</v>
@@ -8934,13 +8937,13 @@
         <v>17</v>
       </c>
       <c r="D212" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E212" t="s">
-        <v>631</v>
+        <v>420</v>
       </c>
       <c r="F212" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G212">
         <v>400</v>
@@ -8948,7 +8951,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B213" t="s">
         <v>8</v>
@@ -8957,13 +8960,13 @@
         <v>17</v>
       </c>
       <c r="D213" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E213" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F213" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G213">
         <v>400</v>
@@ -8971,7 +8974,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B214" t="s">
         <v>8</v>
@@ -8980,13 +8983,13 @@
         <v>17</v>
       </c>
       <c r="D214" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E214" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F214" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G214">
         <v>400</v>
@@ -8994,7 +8997,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B215" t="s">
         <v>8</v>
@@ -9003,13 +9006,13 @@
         <v>17</v>
       </c>
       <c r="D215" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E215" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F215" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G215">
         <v>400</v>
@@ -9017,7 +9020,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B216" t="s">
         <v>8</v>
@@ -9026,13 +9029,13 @@
         <v>17</v>
       </c>
       <c r="D216" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E216" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F216" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G216">
         <v>400</v>
@@ -9040,7 +9043,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B217" t="s">
         <v>8</v>
@@ -9049,13 +9052,13 @@
         <v>17</v>
       </c>
       <c r="D217" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E217" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F217" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G217">
         <v>400</v>
@@ -9063,7 +9066,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B218" t="s">
         <v>8</v>
@@ -9072,13 +9075,13 @@
         <v>17</v>
       </c>
       <c r="D218" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E218" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F218" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G218">
         <v>400</v>
@@ -9086,7 +9089,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B219" t="s">
         <v>8</v>
@@ -9095,13 +9098,13 @@
         <v>17</v>
       </c>
       <c r="D219" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E219" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F219" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G219">
         <v>400</v>
@@ -9109,7 +9112,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B220" t="s">
         <v>8</v>
@@ -9118,13 +9121,13 @@
         <v>17</v>
       </c>
       <c r="D220" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E220" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F220" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G220">
         <v>400</v>
@@ -9132,7 +9135,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B221" t="s">
         <v>8</v>
@@ -9141,13 +9144,13 @@
         <v>17</v>
       </c>
       <c r="D221" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E221" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F221" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G221">
         <v>400</v>
@@ -9155,24 +9158,47 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>441</v>
+      </c>
+      <c r="B222" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" t="s">
+        <v>17</v>
+      </c>
+      <c r="D222" t="s">
+        <v>442</v>
+      </c>
+      <c r="E222" t="s">
+        <v>639</v>
+      </c>
+      <c r="F222" t="s">
+        <v>643</v>
+      </c>
+      <c r="G222">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>443</v>
+      </c>
+      <c r="B223" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" t="s">
+        <v>17</v>
+      </c>
+      <c r="D223" t="s">
         <v>444</v>
       </c>
-      <c r="B222" t="s">
-        <v>8</v>
-      </c>
-      <c r="C222" t="s">
-        <v>17</v>
-      </c>
-      <c r="D222" t="s">
-        <v>445</v>
-      </c>
-      <c r="E222" t="s">
-        <v>641</v>
-      </c>
-      <c r="F222" t="s">
-        <v>644</v>
-      </c>
-      <c r="G222">
+      <c r="E223" t="s">
+        <v>640</v>
+      </c>
+      <c r="F223" t="s">
+        <v>643</v>
+      </c>
+      <c r="G223">
         <v>400</v>
       </c>
     </row>
@@ -9222,16 +9248,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B2" t="s">
         <v>743</v>
       </c>
-      <c r="B2" t="s">
-        <v>744</v>
-      </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -9254,10 +9280,10 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>643</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
@@ -9265,22 +9291,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>682</v>
+      </c>
+      <c r="D4" t="s">
         <v>683</v>
       </c>
-      <c r="D4" t="s">
-        <v>684</v>
-      </c>
       <c r="E4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G4">
         <v>400</v>
@@ -9288,22 +9314,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D5" t="s">
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G5">
         <v>400</v>
@@ -9311,22 +9337,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G6">
         <v>400</v>
@@ -9334,22 +9360,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G7">
         <v>400</v>
@@ -9357,22 +9383,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G8">
         <v>400</v>
@@ -9380,22 +9406,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G9">
         <v>400</v>
@@ -9403,22 +9429,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D10" t="s">
         <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G10">
         <v>400</v>
@@ -9426,22 +9452,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D11" t="s">
         <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G11">
         <v>400</v>
@@ -9449,22 +9475,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E12" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G12">
         <v>400</v>
@@ -9472,22 +9498,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D13" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E13" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G13">
         <v>400</v>
@@ -9495,22 +9521,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D14" t="s">
         <v>110</v>
       </c>
       <c r="E14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F14" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G14">
         <v>400</v>
@@ -9518,22 +9544,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D15" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E15" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F15" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G15">
         <v>400</v>
@@ -9541,22 +9567,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D16" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E16" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F16" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G16">
         <v>400</v>
@@ -9564,22 +9590,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E17" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F17" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G17">
         <v>400</v>
@@ -9587,22 +9613,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D18" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E18" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G18">
         <v>400</v>
@@ -9610,22 +9636,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D19" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E19" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G19">
         <v>400</v>
@@ -9633,22 +9659,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E20" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F20" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G20">
         <v>400</v>
@@ -9656,22 +9682,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D21" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E21" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G21">
         <v>400</v>
@@ -9679,22 +9705,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D22" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E22" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F22" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G22">
         <v>400</v>
@@ -9702,22 +9728,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D23" t="s">
         <v>206</v>
       </c>
       <c r="E23" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F23" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G23">
         <v>400</v>
@@ -9725,22 +9751,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D24" t="s">
         <v>216</v>
       </c>
       <c r="E24" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F24" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G24">
         <v>400</v>
@@ -9748,22 +9774,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D25" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E25" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G25">
         <v>400</v>
@@ -9771,22 +9797,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F26" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G26">
         <v>400</v>
@@ -9794,22 +9820,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D27" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E27" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F27" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G27">
         <v>400</v>
@@ -9817,22 +9843,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D28" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E28" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F28" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G28">
         <v>400</v>
@@ -9840,22 +9866,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D29" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E29" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F29" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G29">
         <v>400</v>
@@ -9863,22 +9889,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D30" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E30" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F30" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G30">
         <v>400</v>
@@ -9886,22 +9912,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D31" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E31" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F31" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G31">
         <v>400</v>
@@ -9909,22 +9935,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D32" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E32" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F32" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G32">
         <v>400</v>
@@ -9932,22 +9958,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D33" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E33" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F33" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G33">
         <v>400</v>
@@ -9955,22 +9981,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D34" t="s">
         <v>308</v>
       </c>
       <c r="E34" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F34" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G34">
         <v>400</v>
@@ -9978,22 +10004,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D35" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E35" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F35" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G35">
         <v>400</v>
@@ -10001,22 +10027,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D36" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E36" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F36" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G36">
         <v>400</v>
@@ -10024,22 +10050,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D37" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E37" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F37" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G37">
         <v>400</v>
@@ -10047,22 +10073,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D38" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E38" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G38">
         <v>400</v>
@@ -10070,22 +10096,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D39" t="s">
         <v>339</v>
       </c>
       <c r="E39" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F39" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G39">
         <v>400</v>
@@ -10093,22 +10119,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D40" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F40" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G40">
         <v>400</v>
@@ -10116,22 +10142,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>681</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
         <v>682</v>
       </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s">
-        <v>683</v>
-      </c>
       <c r="D41" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E41" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F41" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G41">
         <v>400</v>
@@ -10184,16 +10210,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B2" t="s">
         <v>746</v>
       </c>
-      <c r="B2" t="s">
-        <v>747</v>
-      </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -10216,10 +10242,10 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>643</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
@@ -10227,22 +10253,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G4">
         <v>400</v>
@@ -10250,22 +10276,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D5" t="s">
         <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G5">
         <v>400</v>
@@ -10273,22 +10299,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>785</v>
+      </c>
+      <c r="D6" t="s">
         <v>786</v>
       </c>
-      <c r="D6" t="s">
-        <v>787</v>
-      </c>
       <c r="E6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G6">
         <v>400</v>
@@ -10296,22 +10322,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D7" t="s">
         <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G7">
         <v>400</v>
@@ -10319,22 +10345,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D8" t="s">
         <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G8">
         <v>400</v>
@@ -10342,22 +10368,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D9" t="s">
         <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G9">
         <v>400</v>
@@ -10365,22 +10391,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G10">
         <v>400</v>
@@ -10388,22 +10414,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G11">
         <v>400</v>
@@ -10411,22 +10437,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D12" t="s">
         <v>110</v>
       </c>
       <c r="E12" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G12">
         <v>400</v>
@@ -10434,22 +10460,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D13" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G13">
         <v>400</v>
@@ -10457,22 +10483,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F14" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G14">
         <v>400</v>
@@ -10480,22 +10506,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D15" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E15" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F15" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G15">
         <v>400</v>
@@ -10503,22 +10529,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D16" t="s">
         <v>167</v>
       </c>
       <c r="E16" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F16" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G16">
         <v>400</v>
@@ -10526,22 +10552,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F17" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G17">
         <v>400</v>
@@ -10549,22 +10575,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D18" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G18">
         <v>400</v>
@@ -10572,22 +10598,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D19" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G19">
         <v>400</v>
@@ -10595,22 +10621,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D20" t="s">
         <v>204</v>
       </c>
       <c r="E20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F20" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G20">
         <v>400</v>
@@ -10618,22 +10644,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D21" t="s">
         <v>206</v>
       </c>
       <c r="E21" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G21">
         <v>400</v>
@@ -10641,22 +10667,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D22" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F22" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G22">
         <v>400</v>
@@ -10664,22 +10690,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D23" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E23" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F23" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G23">
         <v>400</v>
@@ -10687,22 +10713,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D24" t="s">
         <v>216</v>
       </c>
       <c r="E24" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F24" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G24">
         <v>400</v>
@@ -10710,22 +10736,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D25" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E25" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G25">
         <v>400</v>
@@ -10733,22 +10759,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D26" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E26" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F26" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G26">
         <v>400</v>
@@ -10756,22 +10782,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D27" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E27" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F27" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G27">
         <v>400</v>
@@ -10779,22 +10805,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D28" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E28" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F28" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G28">
         <v>400</v>
@@ -10802,22 +10828,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D29" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E29" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F29" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G29">
         <v>400</v>
@@ -10825,22 +10851,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D30" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E30" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F30" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G30">
         <v>400</v>
@@ -10848,22 +10874,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D31" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E31" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F31" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G31">
         <v>400</v>
@@ -10871,22 +10897,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D32" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E32" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F32" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G32">
         <v>400</v>
@@ -10894,22 +10920,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D33" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E33" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F33" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G33">
         <v>400</v>
@@ -10917,22 +10943,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D34" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E34" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F34" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G34">
         <v>400</v>
@@ -10940,22 +10966,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D35" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E35" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F35" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G35">
         <v>400</v>
@@ -10963,22 +10989,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D36" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E36" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F36" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G36">
         <v>400</v>
@@ -10986,22 +11012,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D37" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E37" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F37" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G37">
         <v>400</v>
@@ -11009,22 +11035,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E38" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G38">
         <v>400</v>
@@ -11032,22 +11058,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D39" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E39" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F39" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G39">
         <v>400</v>
@@ -11055,22 +11081,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D40" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E40" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F40" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G40">
         <v>400</v>
@@ -11078,22 +11104,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>784</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
         <v>785</v>
       </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s">
-        <v>786</v>
-      </c>
       <c r="D41" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E41" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F41" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G41">
         <v>400</v>
@@ -11142,16 +11168,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -11174,10 +11200,10 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>643</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
@@ -11185,22 +11211,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G4">
         <v>400</v>
@@ -11208,22 +11234,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D5" t="s">
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G5">
         <v>400</v>
@@ -11231,22 +11257,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G6">
         <v>400</v>
@@ -11254,22 +11280,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G7">
         <v>400</v>
@@ -11277,22 +11303,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E8" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G8">
         <v>400</v>
@@ -11300,22 +11326,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D9" t="s">
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G9">
         <v>400</v>
@@ -11323,22 +11349,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D10" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E10" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G10">
         <v>400</v>
@@ -11346,22 +11372,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D11" t="s">
         <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G11">
         <v>400</v>
@@ -11369,22 +11395,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D12" t="s">
         <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G12">
         <v>400</v>
@@ -11392,22 +11418,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G13">
         <v>400</v>
@@ -11415,22 +11441,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D14" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E14" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F14" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G14">
         <v>400</v>
@@ -11438,22 +11464,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D15" t="s">
         <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F15" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G15">
         <v>400</v>
@@ -11461,22 +11487,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D16" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E16" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F16" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G16">
         <v>400</v>
@@ -11484,22 +11510,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D17" t="s">
         <v>135</v>
       </c>
       <c r="E17" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F17" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G17">
         <v>400</v>
@@ -11507,22 +11533,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D18" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E18" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G18">
         <v>400</v>
@@ -11530,22 +11556,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D19" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E19" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G19">
         <v>400</v>
@@ -11553,22 +11579,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D20" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E20" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F20" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G20">
         <v>400</v>
@@ -11576,22 +11602,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
+        <v>873</v>
+      </c>
+      <c r="D21" t="s">
         <v>874</v>
       </c>
-      <c r="D21" t="s">
-        <v>875</v>
-      </c>
       <c r="E21" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G21">
         <v>400</v>
@@ -11599,22 +11625,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D22" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E22" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F22" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G22">
         <v>400</v>
@@ -11622,22 +11648,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D23" t="s">
         <v>206</v>
       </c>
       <c r="E23" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F23" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G23">
         <v>400</v>
@@ -11645,22 +11671,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D24" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E24" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F24" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G24">
         <v>400</v>
@@ -11668,22 +11694,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D25" t="s">
         <v>216</v>
       </c>
       <c r="E25" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G25">
         <v>400</v>
@@ -11691,22 +11717,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D26" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E26" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F26" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G26">
         <v>400</v>
@@ -11714,22 +11740,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D27" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E27" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F27" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G27">
         <v>400</v>
@@ -11737,22 +11763,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D28" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E28" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F28" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G28">
         <v>400</v>
@@ -11760,22 +11786,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D29" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E29" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F29" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G29">
         <v>400</v>
@@ -11783,22 +11809,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D30" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E30" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F30" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G30">
         <v>400</v>
@@ -11806,22 +11832,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D31" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E31" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F31" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G31">
         <v>400</v>
@@ -11829,22 +11855,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D32" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E32" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F32" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G32">
         <v>400</v>
@@ -11852,22 +11878,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D33" t="s">
         <v>308</v>
       </c>
       <c r="E33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F33" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G33">
         <v>400</v>
@@ -11875,22 +11901,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D34" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E34" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F34" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G34">
         <v>400</v>
@@ -11898,22 +11924,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D35" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E35" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F35" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G35">
         <v>400</v>
@@ -11921,22 +11947,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D36" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E36" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F36" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G36">
         <v>400</v>
@@ -11944,22 +11970,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D37" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E37" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F37" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G37">
         <v>400</v>
@@ -11967,22 +11993,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D38" t="s">
         <v>341</v>
       </c>
       <c r="E38" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G38">
         <v>400</v>
@@ -11990,22 +12016,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D39" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E39" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F39" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G39">
         <v>400</v>
@@ -12013,22 +12039,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>872</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
         <v>873</v>
       </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
-        <v>874</v>
-      </c>
       <c r="D40" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E40" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F40" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G40">
         <v>400</v>
@@ -12080,16 +12106,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B2" t="s">
         <v>1013</v>
       </c>
-      <c r="B2" t="s">
-        <v>1014</v>
-      </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -12112,10 +12138,10 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>643</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
@@ -12123,22 +12149,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E4" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G4">
         <v>400</v>
@@ -12146,22 +12172,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G5">
         <v>400</v>
@@ -12169,22 +12195,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D6" t="s">
         <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G6">
         <v>400</v>
@@ -12192,22 +12218,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G7">
         <v>400</v>
@@ -12215,22 +12241,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D8" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E8" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G8">
         <v>400</v>
@@ -12238,22 +12264,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E9" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G9">
         <v>400</v>
@@ -12261,22 +12287,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D10" t="s">
         <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G10">
         <v>400</v>
@@ -12284,22 +12310,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D11" t="s">
         <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G11">
         <v>400</v>
@@ -12307,22 +12333,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D12" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E12" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G12">
         <v>400</v>
@@ -12330,22 +12356,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D13" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E13" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G13">
         <v>400</v>
@@ -12353,22 +12379,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E14" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F14" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G14">
         <v>400</v>
@@ -12376,22 +12402,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D15" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E15" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F15" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G15">
         <v>400</v>
@@ -12399,22 +12425,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D16" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E16" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F16" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G16">
         <v>400</v>
@@ -12422,22 +12448,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D17" t="s">
         <v>135</v>
       </c>
       <c r="E17" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F17" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G17">
         <v>400</v>
@@ -12445,22 +12471,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D18" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E18" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G18">
         <v>400</v>
@@ -12468,22 +12494,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D19" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E19" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G19">
         <v>400</v>
@@ -12491,22 +12517,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D20" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E20" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F20" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G20">
         <v>400</v>
@@ -12514,22 +12540,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D21" t="s">
         <v>216</v>
       </c>
       <c r="E21" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G21">
         <v>400</v>
@@ -12537,22 +12563,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D22" t="s">
         <v>216</v>
       </c>
       <c r="E22" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F22" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G22">
         <v>400</v>
@@ -12560,22 +12586,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D23" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E23" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F23" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G23">
         <v>400</v>
@@ -12583,22 +12609,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D24" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E24" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F24" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G24">
         <v>400</v>
@@ -12606,22 +12632,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D25" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E25" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G25">
         <v>400</v>
@@ -12629,22 +12655,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D26" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E26" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F26" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G26">
         <v>400</v>
@@ -12652,22 +12678,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D27" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E27" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F27" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G27">
         <v>400</v>
@@ -12675,22 +12701,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D28" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E28" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F28" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G28">
         <v>400</v>
@@ -12698,19 +12724,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="C29" t="s">
+        <v>954</v>
+      </c>
+      <c r="D29" t="s">
         <v>955</v>
       </c>
-      <c r="D29" t="s">
-        <v>956</v>
-      </c>
       <c r="E29" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -12721,22 +12747,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D30" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E30" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F30" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G30">
         <v>400</v>
@@ -12744,22 +12770,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D31" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E31" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F31" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G31">
         <v>400</v>
@@ -12767,22 +12793,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D32" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E32" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F32" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G32">
         <v>400</v>
@@ -12790,22 +12816,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D33" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E33" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F33" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G33">
         <v>400</v>
@@ -12813,22 +12839,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D34" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E34" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F34" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G34">
         <v>400</v>
@@ -12836,22 +12862,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D35" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E35" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F35" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G35">
         <v>400</v>
@@ -12859,22 +12885,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D36" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E36" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F36" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G36">
         <v>400</v>
@@ -12882,22 +12908,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D37" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E37" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F37" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G37">
         <v>400</v>
@@ -12905,22 +12931,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D38" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E38" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G38">
         <v>400</v>
@@ -12928,22 +12954,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D39" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E39" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F39" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G39">
         <v>400</v>
@@ -12951,22 +12977,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D40" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F40" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G40">
         <v>400</v>
@@ -12974,22 +13000,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D41" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E41" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F41" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G41">
         <v>400</v>
@@ -12997,22 +13023,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D42" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E42" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F42" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G42">
         <v>400</v>
@@ -13020,22 +13046,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D43" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E43" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F43" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G43">
         <v>400</v>
@@ -13043,22 +13069,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D44" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E44" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F44" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G44">
         <v>400</v>
@@ -13066,22 +13092,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>953</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
         <v>954</v>
       </c>
-      <c r="B45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" t="s">
-        <v>955</v>
-      </c>
       <c r="D45" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E45" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G45">
         <v>400</v>
@@ -13133,16 +13159,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B2" t="s">
         <v>1036</v>
       </c>
-      <c r="B2" t="s">
-        <v>1037</v>
-      </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -13165,10 +13191,10 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>643</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
@@ -13176,22 +13202,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D4" t="s">
         <v>1038</v>
       </c>
-      <c r="D4" t="s">
-        <v>1039</v>
-      </c>
       <c r="E4" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G4">
         <v>400</v>
@@ -13199,22 +13225,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D5" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E5" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G5">
         <v>400</v>
@@ -13222,22 +13248,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D6" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G6">
         <v>400</v>
@@ -13245,22 +13271,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D7" t="s">
         <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G7">
         <v>400</v>
@@ -13268,22 +13294,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D8" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G8">
         <v>400</v>
@@ -13291,22 +13317,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E9" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G9">
         <v>400</v>
@@ -13314,22 +13340,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D10" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E10" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G10">
         <v>400</v>
@@ -13337,22 +13363,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E11" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G11">
         <v>400</v>
@@ -13360,22 +13386,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D12" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E12" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G12">
         <v>400</v>
@@ -13383,22 +13409,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D13" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E13" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G13">
         <v>400</v>
@@ -13406,22 +13432,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D14" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E14" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F14" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G14">
         <v>400</v>
@@ -13429,22 +13455,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D15" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E15" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F15" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G15">
         <v>400</v>
@@ -13452,22 +13478,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D16" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E16" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F16" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G16">
         <v>400</v>
@@ -13475,22 +13501,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D17" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E17" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F17" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G17">
         <v>400</v>
@@ -13498,22 +13524,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D18" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E18" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G18">
         <v>400</v>
@@ -13521,22 +13547,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D19" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E19" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G19">
         <v>400</v>
@@ -13544,22 +13570,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D20" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E20" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F20" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G20">
         <v>400</v>
@@ -13567,22 +13593,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D21" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E21" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G21">
         <v>400</v>
@@ -13590,22 +13616,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D22" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E22" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F22" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G22">
         <v>400</v>
@@ -13623,7 +13649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4:G8"/>
     </sheetView>
   </sheetViews>
@@ -13657,16 +13683,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B2" t="s">
         <v>1064</v>
       </c>
-      <c r="B2" t="s">
-        <v>1065</v>
-      </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -13689,10 +13715,10 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>643</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
@@ -13706,16 +13732,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D4" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G4">
         <v>400</v>
@@ -13723,22 +13749,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D5" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G5">
         <v>400</v>
@@ -13746,22 +13772,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D6" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G6">
         <v>400</v>
@@ -13769,22 +13795,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D7" t="s">
         <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G7">
         <v>400</v>
@@ -13792,22 +13818,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D8" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G8">
         <v>400</v>
